--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\romanian_vocab_anki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997801E9-DB73-4CB7-8901-F6676B6CCC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC198BCB-81E0-4ADB-9CC5-EAC75AE7A6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="5785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8551" uniqueCount="5790">
   <si>
     <t>DE</t>
   </si>
@@ -17421,6 +17421,21 @@
   </si>
   <si>
     <t>Audio Satz</t>
+  </si>
+  <si>
+    <t>ușor</t>
+  </si>
+  <si>
+    <t>leicht, einfach</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>scund</t>
+  </si>
+  <si>
+    <t>klein (Größe)</t>
   </si>
 </sst>
 </file>
@@ -17989,11 +18004,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18071,14 +18086,14 @@
         <v>o</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>IF(ISBLANK(F2),"",IF(F2="m","doi","două"))</f>
+        <f t="shared" ref="H2:H65" si="0">IF(OR(F2="f",F2="m",F2="n"),IF(F2="m","doi","două"),"")</f>
         <v>două</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J7" si="0">"[sound:" &amp; TEXT(K2,"000") &amp; "-" &amp; TEXT(L2,"00") &amp; ".mp3]"</f>
+        <f t="shared" ref="J2:J7" si="1">"[sound:" &amp; TEXT(K2,"000") &amp; "-" &amp; TEXT(L2,"00") &amp; ".mp3]"</f>
         <v>[sound:002-01.mp3]</v>
       </c>
       <c r="K2">
@@ -18102,18 +18117,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G66" si="1">IF(ISBLANK(F3),"",IF(F3="f","o","un"))</f>
+        <f t="shared" ref="G3:G66" si="2">IF(ISBLANK(F3),"",IF(F3="f","o","un"))</f>
         <v>un</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H66" si="2">IF(ISBLANK(F3),"",IF(F3="m","doi","două"))</f>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[sound:002-02.mp3]</v>
       </c>
       <c r="K3">
@@ -18137,18 +18152,18 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[sound:002-03.mp3]</v>
       </c>
       <c r="K4">
@@ -18169,18 +18184,18 @@
         <v>18</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H5" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[sound:002-04.mp3]</v>
       </c>
       <c r="K5">
@@ -18210,18 +18225,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>un</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[sound:002-05.mp3]</v>
       </c>
       <c r="K6">
@@ -18245,18 +18260,18 @@
         <v>12</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[sound:002-06.mp3]</v>
       </c>
       <c r="K7">
@@ -18280,11 +18295,11 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G8:G71" si="3">IF(OR(F8="f",F8="m",F8="n"),IF(F8="f","o","un"),"")</f>
         <v>o</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
     </row>
@@ -18302,18 +18317,18 @@
         <v>14</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J36" si="3">"[sound:" &amp; TEXT(K9,"000") &amp; "-" &amp; TEXT(L9,"00") &amp; ".mp3]"</f>
+        <f t="shared" ref="J9:J36" si="4">"[sound:" &amp; TEXT(K9,"000") &amp; "-" &amp; TEXT(L9,"00") &amp; ".mp3]"</f>
         <v>[sound:002-08.mp3]</v>
       </c>
       <c r="K9">
@@ -18337,18 +18352,18 @@
         <v>12</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-09.mp3]</v>
       </c>
       <c r="K10">
@@ -18375,18 +18390,18 @@
         <v>14</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-11.mp3]</v>
       </c>
       <c r="K11">
@@ -18410,18 +18425,18 @@
         <v>12</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-12.mp3]</v>
       </c>
       <c r="K12">
@@ -18445,18 +18460,18 @@
         <v>14</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-14.mp3]</v>
       </c>
       <c r="K13">
@@ -18480,18 +18495,18 @@
         <v>12</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-15.mp3]</v>
       </c>
       <c r="K14">
@@ -18509,18 +18524,18 @@
         <v>11</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-17.mp3]</v>
       </c>
       <c r="K15">
@@ -18543,19 +18558,22 @@
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F16" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-18.mp3]</v>
       </c>
       <c r="K16">
@@ -18578,19 +18596,22 @@
       <c r="E17" t="s">
         <v>42</v>
       </c>
+      <c r="F17" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:002-19.mp3]</v>
       </c>
       <c r="K17">
@@ -18620,18 +18641,18 @@
         <v>80</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-01.mp3]</v>
       </c>
       <c r="K18">
@@ -18661,18 +18682,18 @@
         <v>12</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-02.mp3]</v>
       </c>
       <c r="K19">
@@ -18702,18 +18723,18 @@
         <v>14</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-03.mp3]</v>
       </c>
       <c r="K20">
@@ -18743,18 +18764,18 @@
         <v>12</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-04.mp3]</v>
       </c>
       <c r="K21">
@@ -18784,18 +18805,18 @@
         <v>14</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-05.mp3]</v>
       </c>
       <c r="K22">
@@ -18825,18 +18846,18 @@
         <v>12</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-06.mp3]</v>
       </c>
       <c r="K23">
@@ -18866,18 +18887,18 @@
         <v>12</v>
       </c>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-07.mp3]</v>
       </c>
       <c r="K24">
@@ -18907,18 +18928,18 @@
         <v>12</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-08.mp3]</v>
       </c>
       <c r="K25">
@@ -18945,18 +18966,18 @@
         <v>80</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-09.mp3]</v>
       </c>
       <c r="K26">
@@ -18986,18 +19007,18 @@
         <v>80</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I27" t="s">
         <v>47</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-10.mp3]</v>
       </c>
       <c r="K27">
@@ -19027,18 +19048,18 @@
         <v>80</v>
       </c>
       <c r="G28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I28" t="s">
         <v>47</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-11.mp3]</v>
       </c>
       <c r="K28">
@@ -19068,18 +19089,18 @@
         <v>12</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I29" t="s">
         <v>47</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-12.mp3]</v>
       </c>
       <c r="K29">
@@ -19109,18 +19130,18 @@
         <v>12</v>
       </c>
       <c r="G30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-13.mp3]</v>
       </c>
       <c r="K30">
@@ -19147,18 +19168,18 @@
         <v>80</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-14.mp3]</v>
       </c>
       <c r="K31">
@@ -19188,18 +19209,18 @@
         <v>14</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I32" t="s">
         <v>47</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-15.mp3]</v>
       </c>
       <c r="K32">
@@ -19226,18 +19247,18 @@
         <v>46</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>un</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>două</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I33" t="s">
         <v>47</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-16.mp3]</v>
       </c>
       <c r="K33">
@@ -19267,18 +19288,18 @@
         <v>12</v>
       </c>
       <c r="G34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I34" t="s">
         <v>47</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-17.mp3]</v>
       </c>
       <c r="K34">
@@ -19308,18 +19329,18 @@
         <v>14</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I35" t="s">
         <v>47</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-18.mp3]</v>
       </c>
       <c r="K35">
@@ -19349,18 +19370,18 @@
         <v>80</v>
       </c>
       <c r="G36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I36" t="s">
         <v>47</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[sound:015-19.mp3]</v>
       </c>
       <c r="K36">
@@ -19377,12 +19398,15 @@
       <c r="B37" t="s">
         <v>121</v>
       </c>
+      <c r="F37" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19400,11 +19424,11 @@
         <v>12</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
     </row>
@@ -19422,11 +19446,11 @@
         <v>12</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I39" t="s">
@@ -19447,11 +19471,11 @@
         <v>80</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I40" t="s">
@@ -19470,11 +19494,11 @@
         <v>12</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I41" t="s">
@@ -19495,11 +19519,11 @@
         <v>80</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I42" t="s">
@@ -19518,11 +19542,11 @@
         <v>12</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I43" t="s">
@@ -19549,11 +19573,11 @@
         <v>80</v>
       </c>
       <c r="G44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I44" t="s">
@@ -19580,11 +19604,11 @@
         <v>12</v>
       </c>
       <c r="G45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I45" t="s">
@@ -19602,11 +19626,11 @@
         <v>14</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I46" t="s">
@@ -19627,11 +19651,11 @@
         <v>80</v>
       </c>
       <c r="G47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I47" t="s">
@@ -19652,11 +19676,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I48" t="s">
@@ -19677,11 +19701,11 @@
         <v>80</v>
       </c>
       <c r="G49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I49" t="s">
@@ -19702,11 +19726,11 @@
         <v>80</v>
       </c>
       <c r="G50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I50" t="s">
@@ -19727,11 +19751,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I51" t="s">
@@ -19747,11 +19771,11 @@
       </c>
       <c r="C52" s="3"/>
       <c r="G52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I52" t="s">
@@ -19772,11 +19796,11 @@
         <v>12</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I53" t="s">
@@ -19794,11 +19818,11 @@
         <v>12</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I54" t="s">
@@ -19816,11 +19840,11 @@
         <v>80</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I55" t="s">
@@ -19841,11 +19865,11 @@
         <v>12</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I56" t="s">
@@ -19866,11 +19890,11 @@
         <v>80</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I57" t="s">
@@ -19891,11 +19915,11 @@
         <v>12</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I58" t="s">
@@ -19913,11 +19937,11 @@
         <v>80</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I59" t="s">
@@ -19938,11 +19962,11 @@
         <v>12</v>
       </c>
       <c r="G60" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I60" t="s">
@@ -19963,11 +19987,11 @@
         <v>12</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I61" t="s">
@@ -19988,11 +20012,11 @@
         <v>80</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I62" t="s">
@@ -20013,11 +20037,11 @@
         <v>12</v>
       </c>
       <c r="G63" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I63" t="s">
@@ -20036,11 +20060,11 @@
         <v>14</v>
       </c>
       <c r="G64" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>doi</v>
       </c>
       <c r="I64" t="s">
@@ -20058,11 +20082,11 @@
         <v>12</v>
       </c>
       <c r="G65" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H65" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>două</v>
       </c>
       <c r="I65" t="s">
@@ -20080,11 +20104,11 @@
         <v>14</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H66:H116" si="5">IF(OR(F66="f",F66="m",F66="n"),IF(F66="m","doi","două"),"")</f>
         <v>doi</v>
       </c>
       <c r="I66" t="s">
@@ -20105,11 +20129,11 @@
         <v>12</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f t="shared" ref="G67:G130" si="4">IF(ISBLANK(F67),"",IF(F67="f","o","un"))</f>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H130" si="5">IF(ISBLANK(F67),"",IF(F67="m","doi","două"))</f>
+        <f t="shared" si="5"/>
         <v>două</v>
       </c>
       <c r="I67" t="s">
@@ -20130,7 +20154,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H68" s="4" t="str">
@@ -20155,7 +20179,7 @@
         <v>14</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H69" s="4" t="str">
@@ -20180,7 +20204,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="H70" s="4" t="str">
@@ -20205,7 +20229,7 @@
         <v>14</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>un</v>
       </c>
       <c r="H71" s="4" t="str">
@@ -20230,7 +20254,7 @@
         <v>80</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G72:G117" si="6">IF(OR(F72="f",F72="m",F72="n"),IF(F72="f","o","un"),"")</f>
         <v>un</v>
       </c>
       <c r="H72" s="4" t="str">
@@ -20255,7 +20279,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H73" s="4" t="str">
@@ -20280,7 +20304,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H74" s="4" t="str">
@@ -20305,7 +20329,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H75" s="4" t="str">
@@ -20327,7 +20351,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H76" s="4" t="str">
@@ -20352,7 +20376,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H77" s="4" t="str">
@@ -20377,7 +20401,7 @@
         <v>80</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H78" s="4" t="str">
@@ -20395,8 +20419,11 @@
       <c r="B79" t="s">
         <v>514</v>
       </c>
+      <c r="F79" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G79" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H79" s="4" t="str">
@@ -20421,7 +20448,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H80" s="4" t="str">
@@ -20446,7 +20473,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H81" s="4" t="str">
@@ -20468,7 +20495,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H82" s="4" t="str">
@@ -20493,7 +20520,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H83" s="4" t="str">
@@ -20518,7 +20545,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H84" s="4" t="str">
@@ -20543,7 +20570,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H85" s="4" t="str">
@@ -20574,7 +20601,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H86" s="4" t="str">
@@ -20599,7 +20626,7 @@
         <v>80</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H87" s="4" t="str">
@@ -20624,7 +20651,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H88" s="4" t="str">
@@ -20649,7 +20676,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H89" s="4" t="str">
@@ -20674,7 +20701,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H90" s="4" t="str">
@@ -20699,7 +20726,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H91" s="4" t="str">
@@ -20724,7 +20751,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H92" s="4" t="str">
@@ -20749,7 +20776,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H93" s="4" t="str">
@@ -20774,7 +20801,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H94" s="4" t="str">
@@ -20799,7 +20826,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H95" s="4" t="str">
@@ -20824,7 +20851,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H96" s="4" t="str">
@@ -20849,7 +20876,7 @@
         <v>14</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H97" s="4" t="str">
@@ -20874,7 +20901,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H98" s="4" t="str">
@@ -20899,7 +20926,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H99" s="4" t="str">
@@ -20924,7 +20951,7 @@
         <v>14</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H100" s="4" t="str">
@@ -20949,7 +20976,7 @@
         <v>14</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H101" s="4" t="str">
@@ -20974,7 +21001,7 @@
         <v>14</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H102" s="4" t="str">
@@ -20999,7 +21026,7 @@
         <v>12</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H103" s="4" t="str">
@@ -21024,7 +21051,7 @@
         <v>12</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H104" s="4" t="str">
@@ -21049,7 +21076,7 @@
         <v>14</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H105" s="4" t="str">
@@ -21074,7 +21101,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H106" s="4" t="str">
@@ -21105,7 +21132,7 @@
         <v>14</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H107" s="4" t="str">
@@ -21130,7 +21157,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H108" s="4" t="str">
@@ -21155,7 +21182,7 @@
         <v>14</v>
       </c>
       <c r="G109" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H109" s="4" t="str">
@@ -21180,7 +21207,7 @@
         <v>12</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H110" s="4" t="str">
@@ -21205,7 +21232,7 @@
         <v>12</v>
       </c>
       <c r="G111" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H111" s="4" t="str">
@@ -21230,7 +21257,7 @@
         <v>14</v>
       </c>
       <c r="G112" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H112" s="4" t="str">
@@ -21255,7 +21282,7 @@
         <v>14</v>
       </c>
       <c r="G113" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H113" s="4" t="str">
@@ -21280,7 +21307,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="H114" s="4" t="str">
@@ -21305,7 +21332,7 @@
         <v>14</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H115" s="4" t="str">
@@ -21330,7 +21357,7 @@
         <v>14</v>
       </c>
       <c r="G116" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H116" s="4" t="str">
@@ -21355,11 +21382,11 @@
         <v>14</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>un</v>
       </c>
       <c r="H117" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(F117="f",F117="m",F117="n"),IF(F117="m","doi","două"),"")</f>
         <v>doi</v>
       </c>
       <c r="I117" t="s">
@@ -21367,1518 +21394,1904 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5785</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G118" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G118:G181" si="7">IF(OR(F118="f",F118="m",F118="n"),IF(F118="f","o","un"),"")</f>
         <v/>
       </c>
       <c r="H118" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H118:H181" si="8">IF(OR(F118="f",F118="m",F118="n"),IF(F118="m","doi","două"),"")</f>
         <v/>
       </c>
+      <c r="I118" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G119" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H119" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I119" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G120" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H120" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I120" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G121" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H121" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I121" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G122" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H122" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I122" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5788</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>5787</v>
+      </c>
       <c r="G123" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H123" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
+      </c>
+      <c r="I123" t="s">
+        <v>5580</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G124" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H124" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G125" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H125" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G126" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H126" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G127" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H127" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G128" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H128" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G129" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H129" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G130" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H130" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G131" s="5" t="str">
-        <f t="shared" ref="G131:G194" si="6">IF(ISBLANK(F131),"",IF(F131="f","o","un"))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H131" s="4" t="str">
-        <f t="shared" ref="H131:H194" si="7">IF(ISBLANK(F131),"",IF(F131="m","doi","două"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G132" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H132" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H132" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G133" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H133" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H133" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G134" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H134" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H134" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G135" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H135" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H135" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G136" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H136" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H136" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G137" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H137" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H137" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G138" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H138" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H138" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G139" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H139" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H139" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G140" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H140" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H140" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G141" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H141" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H141" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G142" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H142" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H142" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G143" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H143" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H143" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G144" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H144" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H144" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G145" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H145" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H145" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G146" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H146" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H146" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G147" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H147" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H147" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G148" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H148" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H148" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G149" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H149" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H149" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G150" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H150" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H150" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G151" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H151" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H151" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G152" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H152" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H152" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G153" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H153" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H153" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G154" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H154" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H154" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G155" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H155" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H155" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G156" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H156" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H156" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G157" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H157" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H157" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G158" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H158" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H158" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G159" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H159" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H159" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G160" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H160" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H160" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G161" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H161" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H161" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G162" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H162" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H162" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G163" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H163" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H163" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G164" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H164" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H164" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G165" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H165" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H165" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G166" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H166" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H166" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G167" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H167" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H167" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G168" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H168" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H168" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G169" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H169" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H169" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G170" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H170" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H170" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G171" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H171" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H171" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G172" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H172" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H172" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G173" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H173" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H173" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G174" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H174" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H174" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G175" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H175" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H175" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G176" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H176" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H176" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G177" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H177" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H177" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G178" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H178" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H178" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G179" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H179" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H179" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G180" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H180" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H180" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G181" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H181" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="H181" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G182" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G182:G245" si="9">IF(OR(F182="f",F182="m",F182="n"),IF(F182="f","o","un"),"")</f>
         <v/>
       </c>
       <c r="H182" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H182:H245" si="10">IF(OR(F182="f",F182="m",F182="n"),IF(F182="m","doi","două"),"")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G183" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H183" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G184" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H184" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G185" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H185" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G186" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H186" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G187" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H187" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G188" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H188" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G189" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H189" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G190" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H190" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G191" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H191" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G192" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H192" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G193" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H193" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G194" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H194" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G195" s="5" t="str">
-        <f t="shared" ref="G195:G238" si="8">IF(ISBLANK(F195),"",IF(F195="f","o","un"))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H195" s="4" t="str">
-        <f t="shared" ref="H195:H258" si="9">IF(ISBLANK(F195),"",IF(F195="m","doi","două"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G196" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H196" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H196" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G197" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H197" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H197" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G198" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H198" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H198" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G199" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H199" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H199" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G200" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H200" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H200" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G201" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H201" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H201" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G202" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H202" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H202" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G203" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H203" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H203" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G204" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H204" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H204" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G205" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H205" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H205" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G206" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H206" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H206" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G207" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H207" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H207" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G208" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H208" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H208" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G209" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H209" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H209" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G210" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H210" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H210" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G211" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H211" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H211" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G212" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H212" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H212" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G213" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H213" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H213" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G214" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H214" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H214" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G215" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H215" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H215" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G216" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H216" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H216" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G217" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H217" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H217" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G218" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H218" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H218" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G219" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H219" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H219" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G220" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H220" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H220" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G221" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H221" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H221" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G222" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H222" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H222" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G223" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H223" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H223" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G224" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H224" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H224" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G225" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H225" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H225" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G226" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H226" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H226" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G227" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H227" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H227" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G228" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H228" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H228" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G229" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H229" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H229" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G230" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H230" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H230" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G231" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H231" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H231" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G232" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H232" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H232" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G233" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H233" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H233" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="234" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G234" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H234" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H234" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="235" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G235" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H235" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H235" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="236" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G236" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H236" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H236" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="237" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G237" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H237" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H237" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="238" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G238" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H238" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H238" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="239" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H239" s="4" t="str">
+      <c r="G239" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="H239" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="240" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H240" s="4" t="str">
+      <c r="G240" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H241" s="4" t="str">
+      <c r="H240" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G241" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H242" s="4" t="str">
+      <c r="H241" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G242" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H243" s="4" t="str">
+      <c r="H242" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G243" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H244" s="4" t="str">
+      <c r="H243" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G244" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H245" s="4" t="str">
+      <c r="H244" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G245" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H246" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H247" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H248" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H249" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H250" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H251" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H252" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H253" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H254" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H255" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H256" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H257" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H258" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H259" s="4" t="str">
-        <f t="shared" ref="H259:H289" si="10">IF(ISBLANK(F259),"",IF(F259="m","doi","două"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H260" s="4" t="str">
+      <c r="H245" s="4" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G246" s="5" t="str">
+        <f t="shared" ref="G246:G300" si="11">IF(OR(F246="f",F246="m",F246="n"),IF(F246="f","o","un"),"")</f>
+        <v/>
+      </c>
+      <c r="H246" s="4" t="str">
+        <f t="shared" ref="H246:H300" si="12">IF(OR(F246="f",F246="m",F246="n"),IF(F246="m","doi","două"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G247" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H247" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G248" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H248" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G249" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H249" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G250" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H250" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G251" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H251" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G252" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H252" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G253" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H253" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G254" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H254" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G255" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H255" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G256" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H256" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G257" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H257" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G258" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H258" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G259" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H259" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G260" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H260" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G261" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H261" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G262" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H262" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G263" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H263" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G264" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H264" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G265" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H265" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G266" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H266" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G267" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H267" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G268" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H268" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G269" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H269" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G270" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H270" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G271" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H271" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G272" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H272" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G273" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H273" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G274" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H274" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G275" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H275" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G276" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H276" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G277" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H277" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G278" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H278" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G279" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H279" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G280" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H280" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G281" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H281" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G282" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H282" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G283" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H283" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G284" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H284" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G285" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H285" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G286" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H286" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G287" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H287" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G288" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H288" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G289" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="H289" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G290" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H290" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G291" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H291" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G292" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H292" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G293" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H293" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G294" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H294" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G295" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H295" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G296" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H296" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G297" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H297" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G298" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H298" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G299" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H299" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G300" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H300" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\romanian_vocab_anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC198BCB-81E0-4ADB-9CC5-EAC75AE7A6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C5226-94D8-4D8A-859C-2662D5BF5E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
+    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8551" uniqueCount="5790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8807" uniqueCount="5815">
   <si>
     <t>DE</t>
   </si>
@@ -16810,9 +16810,6 @@
     <t>Kraut/ Kohl</t>
   </si>
   <si>
-    <t>Plural</t>
-  </si>
-  <si>
     <t>familii</t>
   </si>
   <si>
@@ -17436,6 +17433,84 @@
   </si>
   <si>
     <t>klein (Größe)</t>
+  </si>
+  <si>
+    <t>schön, hübsch</t>
+  </si>
+  <si>
+    <t>bufniță</t>
+  </si>
+  <si>
+    <t>Eule</t>
+  </si>
+  <si>
+    <t>bufnițe</t>
+  </si>
+  <si>
+    <t>proaspăt</t>
+  </si>
+  <si>
+    <t>frisch</t>
+  </si>
+  <si>
+    <t>copt</t>
+  </si>
+  <si>
+    <t>reif (Obst), gebacken</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>fiert</t>
+  </si>
+  <si>
+    <t>gekocht</t>
+  </si>
+  <si>
+    <t>nackt</t>
+  </si>
+  <si>
+    <t>goale</t>
+  </si>
+  <si>
+    <t>fierte</t>
+  </si>
+  <si>
+    <t>rață</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>rațe</t>
+  </si>
+  <si>
+    <t>prună</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>prune</t>
+  </si>
+  <si>
+    <t>curate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plural/ </t>
+  </si>
+  <si>
+    <t>murdare</t>
+  </si>
+  <si>
+    <t>ud</t>
+  </si>
+  <si>
+    <t>ude</t>
+  </si>
+  <si>
+    <t>beri</t>
   </si>
 </sst>
 </file>
@@ -17665,7 +17740,7 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98A6014B-DB73-42E4-8C7E-73658CBC2544}" name="DE"/>
     <tableColumn id="2" xr3:uid="{002F8B82-91F9-4E1D-91FF-91E74DEAA91E}" name="RO"/>
-    <tableColumn id="3" xr3:uid="{0B5A8FD8-0F31-47DD-BD3D-3BD22199A509}" name="Plural"/>
+    <tableColumn id="3" xr3:uid="{0B5A8FD8-0F31-47DD-BD3D-3BD22199A509}" name="Plural/ "/>
     <tableColumn id="4" xr3:uid="{6D910839-5DDF-46F6-B310-2216490F0FA7}" name="Satz DE"/>
     <tableColumn id="5" xr3:uid="{03E64F64-F8BF-415A-8CD1-4D61E54F58C4}" name="Satz RO"/>
     <tableColumn id="6" xr3:uid="{9F5E93B5-116B-4542-ADB7-46255486010E}" name="Geschlecht / Typ" dataDxfId="3"/>
@@ -18006,9 +18081,9 @@
   </sheetPr>
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J142" sqref="A2:J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18031,8 +18106,8 @@
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>5583</v>
+      <c r="C1" s="15" t="s">
+        <v>5810</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -18044,16 +18119,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>5710</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>5711</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>5712</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -18070,7 +18145,7 @@
         <v>930</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -18108,16 +18183,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C3" t="s">
         <v>5585</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5586</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G66" si="2">IF(ISBLANK(F3),"",IF(F3="f","o","un"))</f>
+        <f t="shared" ref="G3:G7" si="2">IF(ISBLANK(F3),"",IF(F3="f","o","un"))</f>
         <v>un</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -18143,10 +18218,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>12</v>
@@ -18213,7 +18288,7 @@
         <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -18254,7 +18329,7 @@
         <v>662</v>
       </c>
       <c r="C7" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>12</v>
@@ -18346,7 +18421,7 @@
         <v>4439</v>
       </c>
       <c r="C10" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>12</v>
@@ -18381,7 +18456,7 @@
         <v>838</v>
       </c>
       <c r="C11" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -18419,7 +18494,7 @@
         <v>2373</v>
       </c>
       <c r="C12" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>12</v>
@@ -18451,10 +18526,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="C13" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>14</v>
@@ -18486,10 +18561,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C14" t="s">
         <v>5594</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5595</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>12</v>
@@ -18559,7 +18634,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="3"/>
@@ -18597,7 +18672,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="3"/>
@@ -18626,7 +18701,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -18670,7 +18745,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -18711,7 +18786,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -18793,7 +18868,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -18834,7 +18909,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -18875,7 +18950,7 @@
         <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>70</v>
@@ -18916,7 +18991,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
@@ -18995,7 +19070,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -19036,7 +19111,7 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="D28" t="s">
         <v>87</v>
@@ -19077,7 +19152,7 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
@@ -19118,7 +19193,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>95</v>
@@ -19197,7 +19272,7 @@
         <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
@@ -19276,7 +19351,7 @@
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
@@ -19311,10 +19386,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -19358,7 +19433,7 @@
         <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D36" t="s">
         <v>118</v>
@@ -19399,7 +19474,7 @@
         <v>121</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="3"/>
@@ -19418,7 +19493,7 @@
         <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>12</v>
@@ -19440,7 +19515,7 @@
         <v>125</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>12</v>
@@ -19465,7 +19540,7 @@
         <v>127</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>80</v>
@@ -19513,7 +19588,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>80</v>
@@ -19561,7 +19636,7 @@
         <v>135</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="D44" t="s">
         <v>136</v>
@@ -19592,7 +19667,7 @@
         <v>139</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>140</v>
@@ -19645,7 +19720,7 @@
         <v>146</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>80</v>
@@ -19670,7 +19745,7 @@
         <v>148</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>12</v>
@@ -19695,7 +19770,7 @@
         <v>150</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>80</v>
@@ -19720,7 +19795,7 @@
         <v>152</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>80</v>
@@ -19745,7 +19820,7 @@
         <v>154</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>12</v>
@@ -19790,7 +19865,7 @@
         <v>158</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>12</v>
@@ -19859,7 +19934,7 @@
         <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>12</v>
@@ -19884,7 +19959,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>80</v>
@@ -19909,7 +19984,7 @@
         <v>168</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>12</v>
@@ -19981,7 +20056,7 @@
         <v>4778</v>
       </c>
       <c r="C61" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>12</v>
@@ -20003,10 +20078,10 @@
         <v>3514</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>80</v>
@@ -20028,7 +20103,7 @@
         <v>5144</v>
       </c>
       <c r="B63" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="C63" t="s">
         <v>5145</v>
@@ -20123,7 +20198,7 @@
         <v>5150</v>
       </c>
       <c r="C67" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>12</v>
@@ -20148,7 +20223,7 @@
         <v>5153</v>
       </c>
       <c r="C68" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>12</v>
@@ -20173,7 +20248,7 @@
         <v>5155</v>
       </c>
       <c r="C69" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>14</v>
@@ -20198,7 +20273,7 @@
         <v>5156</v>
       </c>
       <c r="C70" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>12</v>
@@ -20223,7 +20298,7 @@
         <v>5158</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>14</v>
@@ -20248,7 +20323,7 @@
         <v>5160</v>
       </c>
       <c r="C72" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>80</v>
@@ -20273,7 +20348,7 @@
         <v>5162</v>
       </c>
       <c r="C73" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>12</v>
@@ -20298,7 +20373,7 @@
         <v>2260</v>
       </c>
       <c r="C74" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>12</v>
@@ -20323,7 +20398,7 @@
         <v>5164</v>
       </c>
       <c r="C75" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>12</v>
@@ -20370,7 +20445,7 @@
         <v>5167</v>
       </c>
       <c r="C77" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>12</v>
@@ -20389,13 +20464,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5673</v>
+      </c>
+      <c r="C78" t="s">
         <v>5675</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5676</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>80</v>
@@ -20414,13 +20489,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
       <c r="B79" t="s">
         <v>514</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G79" s="5" t="str">
         <f t="shared" si="6"/>
@@ -20436,13 +20511,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B80" t="s">
         <v>5678</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>5679</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5680</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>12</v>
@@ -20464,10 +20539,10 @@
         <v>4363</v>
       </c>
       <c r="B81" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="C81" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>12</v>
@@ -20489,7 +20564,7 @@
         <v>4687</v>
       </c>
       <c r="B82" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>12</v>
@@ -20514,7 +20589,7 @@
         <v>4578</v>
       </c>
       <c r="C83" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>12</v>
@@ -20533,13 +20608,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>5685</v>
+      </c>
+      <c r="B84" t="s">
         <v>5686</v>
       </c>
-      <c r="B84" t="s">
-        <v>5687</v>
-      </c>
       <c r="C84" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>12</v>
@@ -20558,13 +20633,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5687</v>
+      </c>
+      <c r="C85" t="s">
         <v>5689</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5688</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5690</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>12</v>
@@ -20583,19 +20658,19 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>5690</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>5691</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" t="s">
         <v>5692</v>
       </c>
-      <c r="C86" t="s">
-        <v>5693</v>
-      </c>
       <c r="D86" s="3" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>5709</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>5710</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>12</v>
@@ -20639,13 +20714,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>5694</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5693</v>
+      </c>
+      <c r="C88" t="s">
         <v>5695</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5694</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5696</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>12</v>
@@ -20664,13 +20739,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
       <c r="B89" t="s">
         <v>2396</v>
       </c>
       <c r="C89" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>12</v>
@@ -20692,10 +20767,10 @@
         <v>3508</v>
       </c>
       <c r="B90" t="s">
+        <v>5698</v>
+      </c>
+      <c r="C90" t="s">
         <v>5699</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5700</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>12</v>
@@ -20720,7 +20795,7 @@
         <v>4676</v>
       </c>
       <c r="C91" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>12</v>
@@ -20739,13 +20814,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C92" t="s">
         <v>5703</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5702</v>
-      </c>
-      <c r="C92" t="s">
-        <v>5704</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>12</v>
@@ -20764,13 +20839,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5704</v>
+      </c>
+      <c r="C93" t="s">
         <v>5706</v>
-      </c>
-      <c r="B93" t="s">
-        <v>5705</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5707</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>12</v>
@@ -20795,7 +20870,7 @@
         <v>4395</v>
       </c>
       <c r="C94" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>12</v>
@@ -20820,7 +20895,7 @@
         <v>4374</v>
       </c>
       <c r="C95" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>12</v>
@@ -20867,10 +20942,10 @@
         <v>3281</v>
       </c>
       <c r="B97" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C97" t="s">
         <v>5722</v>
-      </c>
-      <c r="C97" t="s">
-        <v>5723</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>14</v>
@@ -20895,7 +20970,7 @@
         <v>4426</v>
       </c>
       <c r="C98" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>12</v>
@@ -20914,13 +20989,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C99" t="s">
         <v>5726</v>
-      </c>
-      <c r="B99" t="s">
-        <v>5725</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5727</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>14</v>
@@ -20939,13 +21014,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="B100" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C100" t="s">
         <v>5728</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5729</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>14</v>
@@ -20964,13 +21039,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="B101" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C101" t="s">
         <v>5731</v>
-      </c>
-      <c r="C101" t="s">
-        <v>5732</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>14</v>
@@ -20989,13 +21064,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
       <c r="B102" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C102" t="s">
         <v>5734</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5735</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>14</v>
@@ -21014,13 +21089,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="B103" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C103" t="s">
         <v>5737</v>
-      </c>
-      <c r="C103" t="s">
-        <v>5738</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>12</v>
@@ -21042,10 +21117,10 @@
         <v>4989</v>
       </c>
       <c r="B104" t="s">
+        <v>5739</v>
+      </c>
+      <c r="C104" t="s">
         <v>5740</v>
-      </c>
-      <c r="C104" t="s">
-        <v>5741</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>12</v>
@@ -21064,13 +21139,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="B105" t="s">
+        <v>5741</v>
+      </c>
+      <c r="C105" t="s">
         <v>5742</v>
-      </c>
-      <c r="C105" t="s">
-        <v>5743</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>14</v>
@@ -21089,13 +21164,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="B106" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C106" t="s">
         <v>5745</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5746</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>12</v>
@@ -21114,19 +21189,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B107" t="s">
         <v>5748</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>5749</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E107" t="s">
         <v>5750</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5752</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5751</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>14</v>
@@ -21145,13 +21220,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C108" t="s">
         <v>5754</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5753</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5755</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>12</v>
@@ -21170,13 +21245,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C109" t="s">
         <v>5757</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5756</v>
-      </c>
-      <c r="C109" t="s">
-        <v>5758</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>14</v>
@@ -21195,13 +21270,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="B110" t="s">
+        <v>5758</v>
+      </c>
+      <c r="C110" t="s">
         <v>5759</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5760</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>12</v>
@@ -21220,13 +21295,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="B111" t="s">
+        <v>5761</v>
+      </c>
+      <c r="C111" t="s">
         <v>5762</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5763</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>12</v>
@@ -21245,13 +21320,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B112" t="s">
         <v>5765</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>5766</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5767</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>14</v>
@@ -21270,13 +21345,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>5768</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C113" t="s">
         <v>5769</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5768</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5770</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>14</v>
@@ -21295,13 +21370,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C114" t="s">
         <v>5772</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5771</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5773</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>12</v>
@@ -21320,13 +21395,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C115" t="s">
         <v>5775</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5774</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5776</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>14</v>
@@ -21345,13 +21420,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5776</v>
+      </c>
+      <c r="C116" t="s">
         <v>5778</v>
-      </c>
-      <c r="B116" t="s">
-        <v>5777</v>
-      </c>
-      <c r="C116" t="s">
-        <v>5779</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>14</v>
@@ -21370,13 +21445,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>5779</v>
+      </c>
+      <c r="B117" t="s">
         <v>5780</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>5781</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5782</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>14</v>
@@ -21395,13 +21470,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>5785</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5784</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>5786</v>
-      </c>
-      <c r="B118" t="s">
-        <v>5785</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>5787</v>
       </c>
       <c r="G118" s="5" t="str">
         <f t="shared" ref="G118:G181" si="7">IF(OR(F118="f",F118="m",F118="n"),IF(F118="f","o","un"),"")</f>
@@ -21423,7 +21498,7 @@
         <v>1414</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G119" s="5" t="str">
         <f t="shared" si="7"/>
@@ -21445,7 +21520,7 @@
         <v>1156</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G120" s="5" t="str">
         <f t="shared" si="7"/>
@@ -21467,7 +21542,7 @@
         <v>2696</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G121" s="5" t="str">
         <f t="shared" si="7"/>
@@ -21489,7 +21564,7 @@
         <v>1320</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G122" s="5" t="str">
         <f t="shared" si="7"/>
@@ -21505,13 +21580,13 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="B123" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="G123" s="5" t="str">
         <f t="shared" si="7"/>
@@ -21526,16 +21601,40 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G124" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H124" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>doi</v>
+      </c>
+      <c r="I124" t="s">
+        <v>5580</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G125" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21544,8 +21643,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I125" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B126" t="s">
+        <v>646</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G126" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21554,8 +21665,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I126" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4404</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G127" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21564,8 +21687,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I127" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G128" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21574,18 +21709,45 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5791</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5792</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G129" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H129" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I129" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5793</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G130" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21594,8 +21756,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5795</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G131" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21604,8 +21778,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G132" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21614,8 +21803,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G133" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21624,8 +21828,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G134" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21634,28 +21853,73 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5805</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G135" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H135" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I135" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5808</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G136" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H136" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I136" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5809</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G137" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21664,8 +21928,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5811</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G138" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21674,8 +21953,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B139" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G139" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21684,8 +21978,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5813</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G140" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21694,28 +22003,61 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B141" t="s">
+        <v>470</v>
+      </c>
+      <c r="C141" t="s">
+        <v>648</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G141" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H141" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I141" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5814</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G142" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H142" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I142" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G143" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -21725,7 +22067,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G144" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -23334,22 +23676,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>5714</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>5715</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>5716</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>5717</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>5718</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>5719</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>170</v>
@@ -23806,7 +24148,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="B15" t="s">
         <v>5299</v>
@@ -53894,10 +54236,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1BFFFA-3DE2-4CFE-BE80-A950A2B6A0C1}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53910,7 +54252,7 @@
         <v>930</v>
       </c>
       <c r="C1" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -53931,7 +54273,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -53939,10 +54281,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C2" t="s">
         <v>5585</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5586</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -53957,7 +54299,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -53965,10 +54307,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="C3" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" t="s">
@@ -53984,7 +54326,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -53998,16 +54340,16 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H4" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -54018,7 +54360,7 @@
         <v>652</v>
       </c>
       <c r="C5" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
@@ -54039,7 +54381,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -54050,7 +54392,7 @@
         <v>662</v>
       </c>
       <c r="C6" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54065,7 +54407,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -54111,7 +54453,7 @@
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -54122,7 +54464,7 @@
         <v>4439</v>
       </c>
       <c r="C9" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -54137,7 +54479,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -54148,7 +54490,7 @@
         <v>838</v>
       </c>
       <c r="C10" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -54166,7 +54508,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -54177,7 +54519,7 @@
         <v>2373</v>
       </c>
       <c r="C11" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -54192,7 +54534,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -54200,10 +54542,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="C12" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -54218,7 +54560,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -54226,10 +54568,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C13" t="s">
         <v>5594</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5595</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -54244,7 +54586,7 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -54256,16 +54598,16 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H14" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -54281,17 +54623,20 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
+      <c r="F15" t="s">
+        <v>5786</v>
+      </c>
       <c r="G15" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H15" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -54307,18 +54652,20 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>5786</v>
+      </c>
       <c r="G16" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H16" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -54326,7 +54673,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -54350,7 +54697,7 @@
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -54361,7 +54708,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -54382,7 +54729,7 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -54393,7 +54740,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>54</v>
@@ -54414,7 +54761,7 @@
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -54446,7 +54793,7 @@
         <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -54457,7 +54804,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
@@ -54478,7 +54825,7 @@
         <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -54489,7 +54836,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -54510,7 +54857,7 @@
         <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -54521,7 +54868,7 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>70</v>
@@ -54542,7 +54889,7 @@
         <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -54553,7 +54900,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
@@ -54574,7 +54921,7 @@
         <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -54603,7 +54950,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -54614,7 +54961,7 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>83</v>
@@ -54635,7 +54982,7 @@
         <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -54646,7 +54993,7 @@
         <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>87</v>
@@ -54667,7 +55014,7 @@
         <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -54678,7 +55025,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>91</v>
@@ -54699,7 +55046,7 @@
         <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -54710,7 +55057,7 @@
         <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -54731,7 +55078,7 @@
         <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -54760,7 +55107,7 @@
         <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -54771,7 +55118,7 @@
         <v>102</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>103</v>
@@ -54792,7 +55139,7 @@
         <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -54812,16 +55159,16 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>5782</v>
       </c>
       <c r="H32" t="s">
-        <v>615</v>
+        <v>5782</v>
       </c>
       <c r="I32" t="s">
         <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -54832,7 +55179,7 @@
         <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>111</v>
@@ -54853,15 +55200,15 @@
         <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="B34" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -54873,19 +55220,19 @@
         <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>615</v>
+        <v>508</v>
       </c>
       <c r="I34" t="s">
         <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -54896,7 +55243,7 @@
         <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D35" t="s">
         <v>118</v>
@@ -54917,7 +55264,7 @@
         <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -54927,11 +55274,14 @@
       <c r="B36" t="s">
         <v>121</v>
       </c>
+      <c r="F36" t="s">
+        <v>5786</v>
+      </c>
       <c r="G36" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H36" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -54942,7 +55292,7 @@
         <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -54962,7 +55312,7 @@
         <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -54985,7 +55335,7 @@
         <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
@@ -55028,7 +55378,7 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="F41" t="s">
         <v>80</v>
@@ -55071,13 +55421,13 @@
         <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
       <c r="F43" t="s">
         <v>80</v>
@@ -55100,7 +55450,7 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="D44" t="s">
         <v>140</v>
@@ -55149,7 +55499,7 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="F46" t="s">
         <v>80</v>
@@ -55172,7 +55522,7 @@
         <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -55195,7 +55545,7 @@
         <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
@@ -55218,7 +55568,7 @@
         <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
@@ -55241,7 +55591,7 @@
         <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -55264,10 +55614,10 @@
         <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H51" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I51" t="s">
         <v>5580</v>
@@ -55281,7 +55631,7 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -55344,7 +55694,7 @@
         <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -55367,7 +55717,7 @@
         <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="F56" t="s">
         <v>80</v>
@@ -55390,7 +55740,7 @@
         <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -55456,7 +55806,7 @@
         <v>4778</v>
       </c>
       <c r="C60" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -55476,10 +55826,10 @@
         <v>3514</v>
       </c>
       <c r="B61" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="C61" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="F61" t="s">
         <v>80</v>
@@ -55499,7 +55849,7 @@
         <v>5144</v>
       </c>
       <c r="B62" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="C62" t="s">
         <v>5145</v>
@@ -55585,7 +55935,7 @@
         <v>5150</v>
       </c>
       <c r="C66" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -55608,7 +55958,7 @@
         <v>5153</v>
       </c>
       <c r="C67" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -55631,7 +55981,7 @@
         <v>5155</v>
       </c>
       <c r="C68" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -55654,7 +56004,7 @@
         <v>5156</v>
       </c>
       <c r="C69" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -55677,7 +56027,7 @@
         <v>5158</v>
       </c>
       <c r="C70" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -55700,7 +56050,7 @@
         <v>5160</v>
       </c>
       <c r="C71" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="F71" t="s">
         <v>80</v>
@@ -55723,7 +56073,7 @@
         <v>5162</v>
       </c>
       <c r="C72" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -55746,7 +56096,7 @@
         <v>2260</v>
       </c>
       <c r="C73" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -55769,7 +56119,7 @@
         <v>5164</v>
       </c>
       <c r="C74" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -55812,7 +56162,7 @@
         <v>5167</v>
       </c>
       <c r="C76" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -55829,13 +56179,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5673</v>
+      </c>
+      <c r="C77" t="s">
         <v>5675</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5674</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5676</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
@@ -55852,16 +56202,19 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
       <c r="B78" t="s">
         <v>514</v>
       </c>
+      <c r="F78" t="s">
+        <v>5786</v>
+      </c>
       <c r="G78" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="H78" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I78" t="s">
         <v>5580</v>
@@ -55869,13 +56222,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B79" t="s">
         <v>5678</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>5679</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5680</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -55895,10 +56248,10 @@
         <v>4363</v>
       </c>
       <c r="B80" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="C80" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -55918,7 +56271,7 @@
         <v>4687</v>
       </c>
       <c r="B81" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -55941,7 +56294,7 @@
         <v>4578</v>
       </c>
       <c r="C82" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -55958,13 +56311,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>5685</v>
+      </c>
+      <c r="B83" t="s">
         <v>5686</v>
       </c>
-      <c r="B83" t="s">
-        <v>5687</v>
-      </c>
       <c r="C83" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -55981,13 +56334,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5687</v>
+      </c>
+      <c r="C84" t="s">
         <v>5689</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5688</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5690</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -56004,19 +56357,19 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>5690</v>
+      </c>
+      <c r="B85" t="s">
         <v>5691</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>5692</v>
       </c>
-      <c r="C85" t="s">
-        <v>5693</v>
-      </c>
       <c r="D85" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E85" t="s">
         <v>5709</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5710</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -56056,13 +56409,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>5694</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5693</v>
+      </c>
+      <c r="C87" t="s">
         <v>5695</v>
-      </c>
-      <c r="B87" t="s">
-        <v>5694</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5696</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -56079,13 +56432,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
       <c r="B88" t="s">
         <v>2396</v>
       </c>
       <c r="C88" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -56105,10 +56458,10 @@
         <v>3508</v>
       </c>
       <c r="B89" t="s">
+        <v>5698</v>
+      </c>
+      <c r="C89" t="s">
         <v>5699</v>
-      </c>
-      <c r="C89" t="s">
-        <v>5700</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -56131,7 +56484,7 @@
         <v>4676</v>
       </c>
       <c r="C90" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -56148,13 +56501,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C91" t="s">
         <v>5703</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5702</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5704</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -56171,13 +56524,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5704</v>
+      </c>
+      <c r="C92" t="s">
         <v>5706</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5705</v>
-      </c>
-      <c r="C92" t="s">
-        <v>5707</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
@@ -56200,7 +56553,7 @@
         <v>4395</v>
       </c>
       <c r="C93" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -56223,7 +56576,7 @@
         <v>4374</v>
       </c>
       <c r="C94" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -56266,10 +56619,10 @@
         <v>3281</v>
       </c>
       <c r="B96" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C96" t="s">
         <v>5722</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5723</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -56292,7 +56645,7 @@
         <v>4426</v>
       </c>
       <c r="C97" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -56309,13 +56662,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C98" t="s">
         <v>5726</v>
-      </c>
-      <c r="B98" t="s">
-        <v>5725</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5727</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -56332,13 +56685,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="B99" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C99" t="s">
         <v>5728</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5729</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -56355,13 +56708,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="B100" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C100" t="s">
         <v>5731</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5732</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -56378,13 +56731,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
       <c r="B101" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C101" t="s">
         <v>5734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>5735</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -56401,13 +56754,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="B102" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C102" t="s">
         <v>5737</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5738</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
@@ -56427,10 +56780,10 @@
         <v>4989</v>
       </c>
       <c r="B103" t="s">
+        <v>5739</v>
+      </c>
+      <c r="C103" t="s">
         <v>5740</v>
-      </c>
-      <c r="C103" t="s">
-        <v>5741</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -56447,13 +56800,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="B104" t="s">
+        <v>5741</v>
+      </c>
+      <c r="C104" t="s">
         <v>5742</v>
-      </c>
-      <c r="C104" t="s">
-        <v>5743</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -56470,13 +56823,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="B105" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C105" t="s">
         <v>5745</v>
-      </c>
-      <c r="C105" t="s">
-        <v>5746</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -56493,19 +56846,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B106" t="s">
         <v>5748</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>5749</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E106" t="s">
         <v>5750</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5752</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5751</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -56522,13 +56875,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C107" t="s">
         <v>5754</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5753</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5755</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
@@ -56545,13 +56898,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C108" t="s">
         <v>5757</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5756</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5758</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -56568,13 +56921,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="B109" t="s">
+        <v>5758</v>
+      </c>
+      <c r="C109" t="s">
         <v>5759</v>
-      </c>
-      <c r="C109" t="s">
-        <v>5760</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
@@ -56591,13 +56944,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="B110" t="s">
+        <v>5761</v>
+      </c>
+      <c r="C110" t="s">
         <v>5762</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5763</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -56614,13 +56967,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B111" t="s">
         <v>5765</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>5766</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5767</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -56637,13 +56990,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>5768</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C112" t="s">
         <v>5769</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5768</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5770</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -56660,13 +57013,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C113" t="s">
         <v>5772</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5771</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5773</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
@@ -56683,13 +57036,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C114" t="s">
         <v>5775</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5774</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5776</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -56706,13 +57059,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5776</v>
+      </c>
+      <c r="C115" t="s">
         <v>5778</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5777</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5779</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -56729,13 +57082,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>5779</v>
+      </c>
+      <c r="B116" t="s">
         <v>5780</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>5781</v>
-      </c>
-      <c r="C116" t="s">
-        <v>5782</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -56747,6 +57100,545 @@
         <v>508</v>
       </c>
       <c r="I116" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>5785</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5784</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I117" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G118" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H118" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I118" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G119" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H119" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I119" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G120" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H120" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I120" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G121" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H121" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I121" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5787</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G122" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H122" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I122" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>318</v>
+      </c>
+      <c r="H123" t="s">
+        <v>508</v>
+      </c>
+      <c r="I123" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G124" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H124" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I124" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B125" t="s">
+        <v>646</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H125" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I125" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4404</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G126" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H126" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I126" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H127" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I127" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5791</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5792</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>306</v>
+      </c>
+      <c r="H128" t="s">
+        <v>615</v>
+      </c>
+      <c r="I128" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5793</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G129" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H129" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I129" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5795</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G130" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H130" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I130" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H131" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I131" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H132" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I132" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G133" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H133" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I133" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5805</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>306</v>
+      </c>
+      <c r="H134" t="s">
+        <v>615</v>
+      </c>
+      <c r="I134" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5808</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>306</v>
+      </c>
+      <c r="H135" t="s">
+        <v>615</v>
+      </c>
+      <c r="I135" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5809</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G136" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H136" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I136" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5811</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G137" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H137" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I137" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B138" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G138" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H138" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I138" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5813</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G139" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I139" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B140" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" t="s">
+        <v>648</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>306</v>
+      </c>
+      <c r="H140" t="s">
+        <v>615</v>
+      </c>
+      <c r="I140" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5814</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>306</v>
+      </c>
+      <c r="H141" t="s">
+        <v>615</v>
+      </c>
+      <c r="I141" t="s">
         <v>5580</v>
       </c>
     </row>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\romanian_vocab_anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C5226-94D8-4D8A-859C-2662D5BF5E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7712D-EDC3-4E8A-AB2B-ABDF467A4D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8807" uniqueCount="5815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="5827">
   <si>
     <t>DE</t>
   </si>
@@ -17511,6 +17511,42 @@
   </si>
   <si>
     <t>beri</t>
+  </si>
+  <si>
+    <t>frigider</t>
+  </si>
+  <si>
+    <t>Kühlschrank</t>
+  </si>
+  <si>
+    <t>frigidere</t>
+  </si>
+  <si>
+    <t>atrăgător</t>
+  </si>
+  <si>
+    <t>attraktiv</t>
+  </si>
+  <si>
+    <t>atrăgătoare</t>
+  </si>
+  <si>
+    <t>reci</t>
+  </si>
+  <si>
+    <t>iute</t>
+  </si>
+  <si>
+    <t>scharf (gwürzt)</t>
+  </si>
+  <si>
+    <t>iuți</t>
+  </si>
+  <si>
+    <t>cumsecade</t>
+  </si>
+  <si>
+    <t>anständig</t>
   </si>
 </sst>
 </file>
@@ -18083,7 +18119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J142" sqref="A2:J142"/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="A2:I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22058,16 +22094,40 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5817</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="G143" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H143" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>două</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5820</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G144" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22077,7 +22137,19 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G145" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22087,7 +22159,19 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>904</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G146" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22097,7 +22181,19 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B147" t="s">
+        <v>542</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G147" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22107,7 +22203,19 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5823</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5824</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G148" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22117,7 +22225,19 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5825</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G149" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22127,7 +22247,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G150" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22137,7 +22257,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G151" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22147,7 +22267,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G152" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22157,7 +22277,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G153" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22167,7 +22287,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G154" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22177,7 +22297,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G155" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22187,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G156" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22197,7 +22317,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G157" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22207,7 +22327,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G158" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22217,7 +22337,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G159" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22227,7 +22347,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G160" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -54236,10 +54356,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1BFFFA-3DE2-4CFE-BE80-A950A2B6A0C1}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57642,6 +57762,167 @@
         <v>5580</v>
       </c>
     </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5817</v>
+      </c>
+      <c r="F142" t="s">
+        <v>80</v>
+      </c>
+      <c r="G142" t="s">
+        <v>318</v>
+      </c>
+      <c r="H142" t="s">
+        <v>615</v>
+      </c>
+      <c r="I142" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5820</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H143" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I143" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H144" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I144" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>904</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G145" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I145" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B146" t="s">
+        <v>542</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H146" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I146" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>5823</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5824</v>
+      </c>
+      <c r="F147" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G147" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H147" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I147" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5825</v>
+      </c>
+      <c r="F148" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H148" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I148" t="s">
+        <v>5580</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\romanian_vocab_anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7712D-EDC3-4E8A-AB2B-ABDF467A4D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD07C9-C7F8-43B5-95EC-54FB052DF685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="5827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9093" uniqueCount="5867">
   <si>
     <t>DE</t>
   </si>
@@ -17547,6 +17547,126 @@
   </si>
   <si>
     <t>anständig</t>
+  </si>
+  <si>
+    <t>liliac</t>
+  </si>
+  <si>
+    <t>Fledermaus</t>
+  </si>
+  <si>
+    <t>lilieci</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>a întreba</t>
+  </si>
+  <si>
+    <t>a înota</t>
+  </si>
+  <si>
+    <t>bou</t>
+  </si>
+  <si>
+    <t>Ochse</t>
+  </si>
+  <si>
+    <t>boi</t>
+  </si>
+  <si>
+    <t>groß (Höhe)</t>
+  </si>
+  <si>
+    <t>Nacht</t>
+  </si>
+  <si>
+    <t>nopți</t>
+  </si>
+  <si>
+    <t>schwierig</t>
+  </si>
+  <si>
+    <t>grei/ grele</t>
+  </si>
+  <si>
+    <t>arăți</t>
+  </si>
+  <si>
+    <t>arătăm</t>
+  </si>
+  <si>
+    <t>arătați</t>
+  </si>
+  <si>
+    <t>asculți</t>
+  </si>
+  <si>
+    <t>ascultăm</t>
+  </si>
+  <si>
+    <t>ascultați</t>
+  </si>
+  <si>
+    <t>întrebăm</t>
+  </si>
+  <si>
+    <t>întrebați</t>
+  </si>
+  <si>
+    <t>cumpări</t>
+  </si>
+  <si>
+    <t>înoți</t>
+  </si>
+  <si>
+    <t>înoată</t>
+  </si>
+  <si>
+    <t>înotăm</t>
+  </si>
+  <si>
+    <t>înotați</t>
+  </si>
+  <si>
+    <t>calzi/calde</t>
+  </si>
+  <si>
+    <t>zusammen</t>
+  </si>
+  <si>
+    <t>împreunând</t>
+  </si>
+  <si>
+    <t>Schildkröte</t>
+  </si>
+  <si>
+    <t>broască-țestoasă</t>
+  </si>
+  <si>
+    <t>broaște-țestoase</t>
+  </si>
+  <si>
+    <t>broască</t>
+  </si>
+  <si>
+    <t>Frosch</t>
+  </si>
+  <si>
+    <t>broaște</t>
+  </si>
+  <si>
+    <t>Schloss (Tür)</t>
+  </si>
+  <si>
+    <t>böse/ schlecht</t>
+  </si>
+  <si>
+    <t>răi/rele</t>
+  </si>
+  <si>
+    <t>râuri</t>
   </si>
 </sst>
 </file>
@@ -18119,7 +18239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="A2:I149"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="A2:J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21571,8 +21691,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>4970</v>
+      <c r="A121" s="3" t="s">
+        <v>5836</v>
       </c>
       <c r="B121" t="s">
         <v>2696</v>
@@ -22114,6 +22234,9 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I143" t="s">
+        <v>5580</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -22136,8 +22259,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>3310</v>
       </c>
@@ -22158,8 +22284,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>904</v>
       </c>
@@ -22180,8 +22309,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>3766</v>
       </c>
@@ -22202,8 +22334,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5823</v>
       </c>
@@ -22224,8 +22359,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5826</v>
       </c>
@@ -22246,28 +22384,73 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5827</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5829</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G150" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H150" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>doi</v>
+      </c>
+      <c r="I150" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5833</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5835</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G151" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H151" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>doi</v>
+      </c>
+      <c r="I151" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" t="s">
+        <v>856</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G152" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22276,18 +22459,48 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B153" t="s">
+        <v>573</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5838</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G153" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H153" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I153" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B154" t="s">
+        <v>693</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5840</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G154" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22296,8 +22509,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B155" t="s">
+        <v>485</v>
+      </c>
+      <c r="C155" t="s">
+        <v>175</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G155" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22306,18 +22534,48 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B156" t="s">
+        <v>470</v>
+      </c>
+      <c r="C156" t="s">
+        <v>648</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G156" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H156" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I156" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5854</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G157" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22326,8 +22584,23 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B158" t="s">
+        <v>518</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G158" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22336,38 +22609,98 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5858</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5859</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G159" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H159" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I159" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G160" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H160" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I160" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>5863</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G161" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H161" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I161" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B162" t="s">
+        <v>374</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5865</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>5786</v>
+      </c>
       <c r="G162" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22376,18 +22709,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5866</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="G163" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H163" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G164" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22397,7 +22745,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G165" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22407,7 +22755,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G166" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22417,7 +22765,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G167" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22427,7 +22775,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G168" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22437,7 +22785,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G169" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22447,7 +22795,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G170" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22457,7 +22805,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G171" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22467,7 +22815,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G172" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22477,7 +22825,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G173" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22487,7 +22835,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G174" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22497,7 +22845,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G175" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -22507,7 +22855,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G176" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -23774,11 +24122,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23958,7 +24306,7 @@
       <c r="A6" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25944,16 +26292,130 @@
       <c r="A63" t="s">
         <v>259</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E63" t="s">
+        <v>835</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5842</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5843</v>
+      </c>
+      <c r="H63" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>261</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>262</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E64" t="s">
+        <v>713</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5845</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5846</v>
+      </c>
+      <c r="H64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5831</v>
+      </c>
+      <c r="C65" t="s">
+        <v>929</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5847</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5848</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5217</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5219</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H66" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5851</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5852</v>
+      </c>
+      <c r="G67" t="s">
+        <v>5853</v>
+      </c>
+      <c r="H67" t="s">
+        <v>5851</v>
       </c>
     </row>
   </sheetData>
@@ -54356,10 +54818,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1BFFFA-3DE2-4CFE-BE80-A950A2B6A0C1}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57285,7 +57747,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4970</v>
+        <v>5836</v>
       </c>
       <c r="B120" t="s">
         <v>2696</v>
@@ -57921,6 +58383,325 @@
       </c>
       <c r="I148" t="s">
         <v>5580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5827</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5829</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>318</v>
+      </c>
+      <c r="H149" t="s">
+        <v>508</v>
+      </c>
+      <c r="I149" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5833</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5835</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>318</v>
+      </c>
+      <c r="H150" t="s">
+        <v>508</v>
+      </c>
+      <c r="I150" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B151" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" t="s">
+        <v>856</v>
+      </c>
+      <c r="F151" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H151" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I151" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B152" t="s">
+        <v>573</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5838</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>306</v>
+      </c>
+      <c r="H152" t="s">
+        <v>615</v>
+      </c>
+      <c r="I152" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B153" t="s">
+        <v>693</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5840</v>
+      </c>
+      <c r="F153" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G153" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H153" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I153" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B154" t="s">
+        <v>485</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+      <c r="F154" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H154" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I154" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B155" t="s">
+        <v>470</v>
+      </c>
+      <c r="C155" t="s">
+        <v>648</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>306</v>
+      </c>
+      <c r="H155" t="s">
+        <v>615</v>
+      </c>
+      <c r="I155" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5854</v>
+      </c>
+      <c r="F156" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G156" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H156" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I156" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B157" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G157" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H157" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I157" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5858</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5859</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>306</v>
+      </c>
+      <c r="H158" t="s">
+        <v>615</v>
+      </c>
+      <c r="I158" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>306</v>
+      </c>
+      <c r="H159" t="s">
+        <v>615</v>
+      </c>
+      <c r="I159" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>5863</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>306</v>
+      </c>
+      <c r="H160" t="s">
+        <v>615</v>
+      </c>
+      <c r="I160" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B161" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5865</v>
+      </c>
+      <c r="F161" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G161" t="s">
+        <v>5782</v>
+      </c>
+      <c r="H161" t="s">
+        <v>5782</v>
+      </c>
+      <c r="I161" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5866</v>
+      </c>
+      <c r="F162" t="s">
+        <v>80</v>
+      </c>
+      <c r="G162" t="s">
+        <v>318</v>
+      </c>
+      <c r="H162" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\0-Rumänisch\own\romanian_vocab_anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA1E083-9EF2-4167-8E25-A8EE37FE9CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89BA567-B838-4B45-8E92-FA4E22F6AF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="11604" xr2:uid="{36CC22FB-63D4-41CD-AB8B-40A978F9033C}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9938" uniqueCount="5913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10458" uniqueCount="6000">
   <si>
     <t>DE</t>
   </si>
@@ -17202,16 +17202,8 @@
 eu</t>
   </si>
   <si>
-    <t>DU
-tu</t>
-  </si>
-  <si>
     <t>ER/SIE/ES
 el / ea</t>
-  </si>
-  <si>
-    <t>WIR
-noi</t>
   </si>
   <si>
     <t>IHR
@@ -17806,6 +17798,275 @@
   </si>
   <si>
     <t>ajungeți</t>
+  </si>
+  <si>
+    <t>cantitate</t>
+  </si>
+  <si>
+    <t>Menge, Stückzahl</t>
+  </si>
+  <si>
+    <t>cantități</t>
+  </si>
+  <si>
+    <t>deștept</t>
+  </si>
+  <si>
+    <t>klug, schlau</t>
+  </si>
+  <si>
+    <t>a deștepta</t>
+  </si>
+  <si>
+    <t>fustă</t>
+  </si>
+  <si>
+    <t>fuste</t>
+  </si>
+  <si>
+    <t>paltoane</t>
+  </si>
+  <si>
+    <t>cămașă</t>
+  </si>
+  <si>
+    <t>cămăși</t>
+  </si>
+  <si>
+    <t>rochii</t>
+  </si>
+  <si>
+    <t>pantalon</t>
+  </si>
+  <si>
+    <t>costume</t>
+  </si>
+  <si>
+    <t>pălării</t>
+  </si>
+  <si>
+    <t>cravată</t>
+  </si>
+  <si>
+    <t>cravate</t>
+  </si>
+  <si>
+    <t>Krawatte</t>
+  </si>
+  <si>
+    <t>mănușă</t>
+  </si>
+  <si>
+    <t>mănuși</t>
+  </si>
+  <si>
+    <t>Handschuh</t>
+  </si>
+  <si>
+    <t>curea</t>
+  </si>
+  <si>
+    <t>curele</t>
+  </si>
+  <si>
+    <t>Gürtel</t>
+  </si>
+  <si>
+    <t>a umbla</t>
+  </si>
+  <si>
+    <t>erklären</t>
+  </si>
+  <si>
+    <t>DU 
+tu</t>
+  </si>
+  <si>
+    <t>WIR 
+noi</t>
+  </si>
+  <si>
+    <t>a plăti</t>
+  </si>
+  <si>
+    <t>a explica</t>
+  </si>
+  <si>
+    <t>aufwecken</t>
+  </si>
+  <si>
+    <t>plătiți</t>
+  </si>
+  <si>
+    <t>plătim</t>
+  </si>
+  <si>
+    <t>plătește</t>
+  </si>
+  <si>
+    <t>plătești</t>
+  </si>
+  <si>
+    <t>alergați</t>
+  </si>
+  <si>
+    <t>explică</t>
+  </si>
+  <si>
+    <t>explicați</t>
+  </si>
+  <si>
+    <t>explicăm</t>
+  </si>
+  <si>
+    <t>explici</t>
+  </si>
+  <si>
+    <t>umblă</t>
+  </si>
+  <si>
+    <t>umblați</t>
+  </si>
+  <si>
+    <t>umblăm</t>
+  </si>
+  <si>
+    <t>umbli</t>
+  </si>
+  <si>
+    <t>umblu</t>
+  </si>
+  <si>
+    <t>a spăla</t>
+  </si>
+  <si>
+    <t>waschen, abwaschen</t>
+  </si>
+  <si>
+    <t>a învăța</t>
+  </si>
+  <si>
+    <t>schreien</t>
+  </si>
+  <si>
+    <t>a striga</t>
+  </si>
+  <si>
+    <t>aussehen, zeigen</t>
+  </si>
+  <si>
+    <t>kaputt, defekt, verdorben</t>
+  </si>
+  <si>
+    <t>a strica</t>
+  </si>
+  <si>
+    <t>kaputtmachen</t>
+  </si>
+  <si>
+    <t>a fuma</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>a visa</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>a aduna</t>
+  </si>
+  <si>
+    <t>a traversa</t>
+  </si>
+  <si>
+    <t>überqueren</t>
+  </si>
+  <si>
+    <t>a leșina</t>
+  </si>
+  <si>
+    <t>ohnmächtig werden</t>
+  </si>
+  <si>
+    <t>lösen, erledigen</t>
+  </si>
+  <si>
+    <t>a rezolva</t>
+  </si>
+  <si>
+    <t>mehr</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t>pron</t>
+  </si>
+  <si>
+    <t>einige, etliche</t>
+  </si>
+  <si>
+    <t>sehr</t>
+  </si>
+  <si>
+    <t>sehr gut</t>
+  </si>
+  <si>
+    <t>foarte bine</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>Nu sunt fustele mele</t>
+  </si>
+  <si>
+    <t>Die Röcke gehören mir nicht</t>
+  </si>
+  <si>
+    <t>Mantel, Jacke</t>
+  </si>
+  <si>
+    <t>Pantalonii murdari sunt ai mei</t>
+  </si>
+  <si>
+    <t>Die dreckigen Hosen gehören mir</t>
+  </si>
+  <si>
+    <t>a purta</t>
+  </si>
+  <si>
+    <t>tragen (Kleidung)</t>
+  </si>
+  <si>
+    <t>cești</t>
+  </si>
+  <si>
+    <t>stolz</t>
+  </si>
+  <si>
+    <t>portocaliu</t>
+  </si>
+  <si>
+    <t>sauer</t>
+  </si>
+  <si>
+    <t>acru</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>lila</t>
   </si>
 </sst>
 </file>
@@ -18033,8 +18294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6954D0C2-D96B-48F5-8303-ABEF8A8D25CC}" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:J1048576" xr:uid="{E3B1857E-6863-42AE-8239-048AAA5B88C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6954D0C2-D96B-48F5-8303-ABEF8A8D25CC}" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048575" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:J1048575" xr:uid="{E3B1857E-6863-42AE-8239-048AAA5B88C3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98A6014B-DB73-42E4-8C7E-73658CBC2544}" name="DE"/>
     <tableColumn id="2" xr3:uid="{002F8B82-91F9-4E1D-91FF-91E74DEAA91E}" name="RO"/>
@@ -18052,18 +18313,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A2AD7FC-CFAE-4216-868E-219895D6672C}" name="Tabelle2" displayName="Tabelle2" ref="A1:N1048575" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N1048575" xr:uid="{52463B6B-D53E-4E9E-8947-267F27FABADE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N70">
-    <sortCondition ref="A1:A1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A2AD7FC-CFAE-4216-868E-219895D6672C}" name="Tabelle2" displayName="Tabelle2" ref="A1:N1048574" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N1048574" xr:uid="{52463B6B-D53E-4E9E-8947-267F27FABADE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N69">
+    <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DAE7E385-2BD0-44A4-BF15-59D97E967A91}" name="DE"/>
     <tableColumn id="2" xr3:uid="{5F4B9804-D68B-472E-89FF-3DDD4920939F}" name="RO"/>
     <tableColumn id="3" xr3:uid="{047B9584-1A2B-4A4D-A509-BA37BDD8ADBF}" name="ICH _x000a_eu"/>
-    <tableColumn id="4" xr3:uid="{76BAAB66-F09E-4AEE-B418-E14AF4661688}" name="DU_x000a_tu"/>
+    <tableColumn id="4" xr3:uid="{76BAAB66-F09E-4AEE-B418-E14AF4661688}" name="DU _x000a_tu"/>
     <tableColumn id="5" xr3:uid="{AA1EC6E6-2C1F-42A9-BC61-44459801F0E2}" name="ER/SIE/ES_x000a_el / ea"/>
-    <tableColumn id="6" xr3:uid="{170C3866-BEFF-4164-BF99-0B43C3907372}" name="WIR_x000a_noi"/>
+    <tableColumn id="6" xr3:uid="{170C3866-BEFF-4164-BF99-0B43C3907372}" name="WIR _x000a_noi"/>
     <tableColumn id="7" xr3:uid="{825BEAEF-8DE6-4155-9C91-2D49B325CD3F}" name="IHR_x000a_voi"/>
     <tableColumn id="8" xr3:uid="{408E1A6F-6455-4267-9C74-9D3668B47FB4}" name="SIE_x000a_ei / ele_x000a_mänl. / weibl"/>
     <tableColumn id="9" xr3:uid="{EC747451-5F7E-4F09-9D1A-644EB9D6284A}" name="Konjunktiv"/>
@@ -18377,16 +18638,16 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" customWidth="1"/>
@@ -18406,7 +18667,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -18427,7 +18688,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -18436,7 +18697,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -18978,7 +19239,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="3"/>
@@ -19019,7 +19280,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="3"/>
@@ -19881,7 +20142,7 @@
         <v>121</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="3"/>
@@ -21028,7 +21289,7 @@
         <v>513</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G79" s="5" t="str">
         <f t="shared" si="6"/>
@@ -21448,7 +21709,7 @@
         <v>4394</v>
       </c>
       <c r="C94" t="s">
-        <v>5718</v>
+        <v>5716</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>12</v>
@@ -21476,7 +21737,7 @@
         <v>4373</v>
       </c>
       <c r="C95" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>12</v>
@@ -21529,10 +21790,10 @@
         <v>3280</v>
       </c>
       <c r="B97" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="C97" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>14</v>
@@ -21560,7 +21821,7 @@
         <v>4425</v>
       </c>
       <c r="C98" t="s">
-        <v>5722</v>
+        <v>5720</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>12</v>
@@ -21582,13 +21843,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>5724</v>
+        <v>5722</v>
       </c>
       <c r="B99" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C99" t="s">
         <v>5723</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5725</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>14</v>
@@ -21610,13 +21871,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="B100" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="C100" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>14</v>
@@ -21638,13 +21899,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="B101" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="C101" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>14</v>
@@ -21666,13 +21927,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="B102" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="C102" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>14</v>
@@ -21694,13 +21955,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="B103" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="C103" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>12</v>
@@ -21725,10 +21986,10 @@
         <v>4988</v>
       </c>
       <c r="B104" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="C104" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>12</v>
@@ -21750,13 +22011,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="B105" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="C105" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>14</v>
@@ -21778,13 +22039,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="B106" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="C106" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>12</v>
@@ -21806,19 +22067,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C107" t="s">
         <v>5746</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E107" t="s">
         <v>5747</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5748</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5750</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5749</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>14</v>
@@ -21840,13 +22101,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>5752</v>
+        <v>5750</v>
       </c>
       <c r="B108" t="s">
+        <v>5749</v>
+      </c>
+      <c r="C108" t="s">
         <v>5751</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5753</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>12</v>
@@ -21868,13 +22129,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="B109" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C109" t="s">
         <v>5754</v>
-      </c>
-      <c r="C109" t="s">
-        <v>5756</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>14</v>
@@ -21896,13 +22157,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
       <c r="B110" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="C110" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>12</v>
@@ -21924,13 +22185,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="B111" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="C111" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>12</v>
@@ -21952,13 +22213,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C112" t="s">
         <v>5763</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5764</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5765</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>14</v>
@@ -21980,13 +22241,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="B113" t="s">
+        <v>5764</v>
+      </c>
+      <c r="C113" t="s">
         <v>5766</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5768</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>14</v>
@@ -22008,13 +22269,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="B114" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C114" t="s">
         <v>5769</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5771</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>12</v>
@@ -22036,13 +22297,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="B115" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C115" t="s">
         <v>5772</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5774</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>14</v>
@@ -22064,13 +22325,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="B116" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C116" t="s">
         <v>5775</v>
-      </c>
-      <c r="C116" t="s">
-        <v>5777</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>14</v>
@@ -22092,13 +22353,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C117" t="s">
         <v>5778</v>
-      </c>
-      <c r="B117" t="s">
-        <v>5779</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5780</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>14</v>
@@ -22120,13 +22381,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="B118" t="s">
+        <v>5781</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>5783</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>5785</v>
       </c>
       <c r="G118" s="5" t="str">
         <f t="shared" ref="G118:G181" si="7">IF(OR(F118="f",F118="m",F118="n"),IF(F118="f","o","un"),"")</f>
@@ -22151,7 +22412,7 @@
         <v>1413</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G119" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22176,7 +22437,7 @@
         <v>1155</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G120" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22195,13 +22456,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="B121" t="s">
         <v>2695</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G121" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22226,7 +22487,7 @@
         <v>1319</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G122" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22245,13 +22506,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="B123" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G123" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22304,7 +22565,7 @@
         <v>2033</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G125" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22323,13 +22584,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="B126" t="s">
         <v>645</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G126" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22354,7 +22615,7 @@
         <v>4403</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G127" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22379,7 +22640,7 @@
         <v>1703</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G128" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22398,13 +22659,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="B129" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C129" t="s">
         <v>5789</v>
-      </c>
-      <c r="C129" t="s">
-        <v>5791</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>12</v>
@@ -22426,13 +22687,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="B130" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G130" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22451,13 +22712,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="B131" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G131" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22476,16 +22737,16 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="B132" t="s">
         <v>1904</v>
       </c>
       <c r="C132" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G132" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22504,16 +22765,16 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="C133" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G133" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22532,16 +22793,16 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="B134" t="s">
         <v>1904</v>
       </c>
       <c r="C134" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G134" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22560,13 +22821,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="B135" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C135" t="s">
         <v>5802</v>
-      </c>
-      <c r="C135" t="s">
-        <v>5804</v>
       </c>
       <c r="F135" s="14" t="s">
         <v>12</v>
@@ -22588,13 +22849,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="B136" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C136" t="s">
         <v>5805</v>
-      </c>
-      <c r="C136" t="s">
-        <v>5807</v>
       </c>
       <c r="F136" s="14" t="s">
         <v>12</v>
@@ -22622,10 +22883,10 @@
         <v>1693</v>
       </c>
       <c r="C137" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G137" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22650,10 +22911,10 @@
         <v>4448</v>
       </c>
       <c r="C138" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G138" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22681,7 +22942,7 @@
         <v>2159</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G139" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22703,13 +22964,13 @@
         <v>5026</v>
       </c>
       <c r="B140" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="C140" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G140" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22762,7 +23023,7 @@
         <v>1408</v>
       </c>
       <c r="C142" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="F142" s="14" t="s">
         <v>12</v>
@@ -22784,13 +23045,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="B143" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C143" t="s">
         <v>5814</v>
-      </c>
-      <c r="C143" t="s">
-        <v>5816</v>
       </c>
       <c r="F143" s="14" t="s">
         <v>80</v>
@@ -22812,16 +23073,16 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="B144" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C144" t="s">
         <v>5817</v>
       </c>
-      <c r="C144" t="s">
-        <v>5819</v>
-      </c>
       <c r="F144" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G144" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22846,10 +23107,10 @@
         <v>1420</v>
       </c>
       <c r="C145" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G145" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22877,7 +23138,7 @@
         <v>1215</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G146" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22905,7 +23166,7 @@
         <v>2988</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G147" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22924,16 +23185,16 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="B148" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C148" t="s">
         <v>5821</v>
       </c>
-      <c r="C148" t="s">
-        <v>5823</v>
-      </c>
       <c r="F148" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G148" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22952,16 +23213,16 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="B149" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="C149" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G149" s="5" t="str">
         <f t="shared" si="7"/>
@@ -22980,13 +23241,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="B150" t="s">
+        <v>5824</v>
+      </c>
+      <c r="C150" t="s">
         <v>5826</v>
-      </c>
-      <c r="C150" t="s">
-        <v>5828</v>
       </c>
       <c r="F150" s="14" t="s">
         <v>14</v>
@@ -23008,13 +23269,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="B151" t="s">
+        <v>5830</v>
+      </c>
+      <c r="C151" t="s">
         <v>5832</v>
-      </c>
-      <c r="C151" t="s">
-        <v>5834</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>14</v>
@@ -23045,7 +23306,7 @@
         <v>855</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G152" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23064,13 +23325,13 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="B153" t="s">
         <v>572</v>
       </c>
       <c r="C153" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="F153" s="14" t="s">
         <v>12</v>
@@ -23092,16 +23353,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="B154" t="s">
         <v>692</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G154" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23129,7 +23390,7 @@
         <v>175</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G155" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23182,10 +23443,10 @@
         <v>1790</v>
       </c>
       <c r="C157" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G157" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23204,16 +23465,16 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="B158" t="s">
         <v>517</v>
       </c>
       <c r="C158" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G158" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23232,13 +23493,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5855</v>
+      </c>
+      <c r="C159" t="s">
         <v>5856</v>
-      </c>
-      <c r="B159" t="s">
-        <v>5857</v>
-      </c>
-      <c r="C159" t="s">
-        <v>5858</v>
       </c>
       <c r="F159" s="14" t="s">
         <v>12</v>
@@ -23260,13 +23521,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="B160" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C160" t="s">
         <v>5859</v>
-      </c>
-      <c r="C160" t="s">
-        <v>5861</v>
       </c>
       <c r="F160" s="14" t="s">
         <v>12</v>
@@ -23288,13 +23549,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="B161" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C161" t="s">
         <v>5859</v>
-      </c>
-      <c r="C161" t="s">
-        <v>5861</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>12</v>
@@ -23316,16 +23577,16 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="B162" t="s">
         <v>373</v>
       </c>
       <c r="C162" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G162" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23350,7 +23611,7 @@
         <v>2938</v>
       </c>
       <c r="C163" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>80</v>
@@ -23363,6 +23624,9 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I163" t="s">
+        <v>5579</v>
+      </c>
       <c r="M163">
         <v>162</v>
       </c>
@@ -23375,10 +23639,10 @@
         <v>3233</v>
       </c>
       <c r="C164" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G164" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23388,19 +23652,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I164" t="s">
+        <v>5579</v>
+      </c>
       <c r="M164">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5866</v>
+      </c>
+      <c r="C165" t="s">
         <v>5867</v>
-      </c>
-      <c r="B165" t="s">
-        <v>5868</v>
-      </c>
-      <c r="C165" t="s">
-        <v>5869</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>80</v>
@@ -23413,19 +23680,22 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I165" t="s">
+        <v>5579</v>
+      </c>
       <c r="M165">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5870</v>
+      </c>
+      <c r="C166" t="s">
         <v>5871</v>
-      </c>
-      <c r="B166" t="s">
-        <v>5872</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5873</v>
       </c>
       <c r="F166" s="14" t="s">
         <v>80</v>
@@ -23438,19 +23708,22 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I166" t="s">
+        <v>5579</v>
+      </c>
       <c r="M166">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="B167" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="C167" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="F167" s="14" t="s">
         <v>12</v>
@@ -23463,6 +23736,9 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I167" t="s">
+        <v>5579</v>
+      </c>
       <c r="M167">
         <v>166</v>
       </c>
@@ -23472,10 +23748,10 @@
         <v>3505</v>
       </c>
       <c r="B168" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="C168" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>80</v>
@@ -23488,6 +23764,9 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I168" t="s">
+        <v>5579</v>
+      </c>
       <c r="M168">
         <v>167</v>
       </c>
@@ -23497,10 +23776,10 @@
         <v>3506</v>
       </c>
       <c r="B169" t="s">
-        <v>5878</v>
+        <v>5876</v>
       </c>
       <c r="C169" t="s">
-        <v>5879</v>
+        <v>5877</v>
       </c>
       <c r="F169" s="13" t="s">
         <v>12</v>
@@ -23513,6 +23792,9 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I169" t="s">
+        <v>5579</v>
+      </c>
       <c r="M169">
         <v>168</v>
       </c>
@@ -23538,16 +23820,19 @@
         <f t="shared" si="8"/>
         <v>doi</v>
       </c>
+      <c r="I170" t="s">
+        <v>5579</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>5883</v>
+        <v>5881</v>
       </c>
       <c r="B171" t="s">
         <v>942</v>
       </c>
       <c r="C171" t="s">
-        <v>5884</v>
+        <v>5882</v>
       </c>
       <c r="F171" s="14" t="s">
         <v>12</v>
@@ -23560,16 +23845,19 @@
         <f t="shared" si="8"/>
         <v>două</v>
       </c>
+      <c r="I171" t="s">
+        <v>5579</v>
+      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>5887</v>
+        <v>5885</v>
       </c>
       <c r="B172" t="s">
         <v>632</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G172" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23579,16 +23867,19 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I172" t="s">
+        <v>5579</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="B173" t="s">
         <v>422</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G173" s="5" t="str">
         <f t="shared" si="7"/>
@@ -23598,28 +23889,70 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="I173" t="s">
+        <v>5579</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5911</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5913</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G174" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H174" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>două</v>
+      </c>
+      <c r="I174" t="s">
+        <v>5579</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B175" t="s">
+        <v>891</v>
+      </c>
+      <c r="C175" t="s">
+        <v>449</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G175" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H175" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>doi</v>
+      </c>
+      <c r="I175" t="s">
+        <v>5579</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>5915</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G176" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -23628,128 +23961,329 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5985</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G177" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H177" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I177" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>5987</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="G178" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H178" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I178" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5921</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G179" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H179" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I179" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G180" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H180" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
+        <v>doi</v>
+      </c>
+      <c r="I180" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5922</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G181" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H181" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I181" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5988</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G182" s="5" t="str">
-        <f t="shared" ref="G182:G245" si="9">IF(OR(F182="f",F182="m",F182="n"),IF(F182="f","o","un"),"")</f>
-        <v/>
+        <f t="shared" ref="G182:G244" si="9">IF(OR(F182="f",F182="m",F182="n"),IF(F182="f","o","un"),"")</f>
+        <v>un</v>
       </c>
       <c r="H182" s="4" t="str">
-        <f t="shared" ref="H182:H245" si="10">IF(OR(F182="f",F182="m",F182="n"),IF(F182="m","doi","două"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H182:H244" si="10">IF(OR(F182="f",F182="m",F182="n"),IF(F182="m","doi","două"),"")</f>
+        <v>doi</v>
+      </c>
+      <c r="I182" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5924</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="G183" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>un</v>
       </c>
       <c r="H183" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I183" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5925</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G184" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H184" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I184" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>5928</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5927</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G185" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H185" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I185" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>5931</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5929</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5930</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G186" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H186" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I186" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>5934</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5932</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5933</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G187" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H187" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I187" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G188" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H188" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I188" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G189" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23758,8 +24292,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>5962</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G190" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23768,8 +24314,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B191" t="s">
+        <v>315</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G191" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23778,8 +24336,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B192" t="s">
+        <v>410</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>5979</v>
+      </c>
       <c r="G192" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23788,8 +24358,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>5979</v>
+      </c>
       <c r="G193" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23798,8 +24380,26 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B194" t="s">
+        <v>380</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5983</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>5984</v>
+      </c>
       <c r="G194" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23808,18 +24408,45 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5992</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G195" s="5" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o</v>
       </c>
       <c r="H195" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+        <v>două</v>
+      </c>
+      <c r="I195" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G196" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23828,8 +24455,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I196" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4458</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G197" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23838,8 +24477,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G198" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23848,8 +24499,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G199" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23858,8 +24521,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4886</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G200" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23868,8 +24543,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G201" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23878,8 +24565,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I201" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G202" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23888,8 +24587,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5994</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G203" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23898,8 +24609,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>5995</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5996</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G204" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23908,8 +24631,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G205" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23918,8 +24653,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G206" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23928,8 +24675,20 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4533</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>5783</v>
+      </c>
       <c r="G207" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -23938,8 +24697,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G208" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24311,21 +25073,21 @@
     </row>
     <row r="245" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G245" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G245:G299" si="11">IF(OR(F245="f",F245="m",F245="n"),IF(F245="f","o","un"),"")</f>
         <v/>
       </c>
       <c r="H245" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H245:H299" si="12">IF(OR(F245="f",F245="m",F245="n"),IF(F245="m","doi","două"),"")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G246" s="5" t="str">
-        <f t="shared" ref="G246:G300" si="11">IF(OR(F246="f",F246="m",F246="n"),IF(F246="f","o","un"),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H246" s="4" t="str">
-        <f t="shared" ref="H246:H300" si="12">IF(OR(F246="f",F246="m",F246="n"),IF(F246="m","doi","două"),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -24855,16 +25617,6 @@
         <v/>
       </c>
       <c r="H299" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G300" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H300" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -24886,15 +25638,16 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="A2:L69"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
@@ -24910,20 +25663,20 @@
       <c r="C1" s="18" t="s">
         <v>5712</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>5713</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>5938</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>5714</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>5715</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>5716</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>5717</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>170</v>
@@ -25002,7 +25755,7 @@
         <v>1275</v>
       </c>
       <c r="G3" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="H3" t="s">
         <v>1036</v>
@@ -25095,19 +25848,19 @@
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="E6" t="s">
+        <v>5906</v>
+      </c>
+      <c r="F6" t="s">
         <v>5908</v>
       </c>
-      <c r="F6" t="s">
-        <v>5910</v>
-      </c>
       <c r="G6" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="H6" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -25302,10 +26055,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="C12" t="s">
         <v>928</v>
@@ -25317,10 +26070,10 @@
         <v>2612</v>
       </c>
       <c r="F12" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="G12" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="H12" t="s">
         <v>2612</v>
@@ -25404,7 +26157,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>239</v>
+        <v>5009</v>
       </c>
       <c r="B15" t="s">
         <v>5237</v>
@@ -25509,25 +26262,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5880</v>
+        <v>5878</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
       <c r="C18" t="s">
         <v>1200</v>
       </c>
       <c r="D18" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="E18" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="F18" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="G18" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="H18" t="s">
         <v>1200</v>
@@ -25658,7 +26411,7 @@
         <v>2093</v>
       </c>
       <c r="D22" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="E22" t="s">
         <v>5216</v>
@@ -25950,16 +26703,16 @@
         <v>2451</v>
       </c>
       <c r="D30" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="E30" t="s">
         <v>844</v>
       </c>
       <c r="F30" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="G30" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="H30" t="s">
         <v>2451</v>
@@ -26093,13 +26846,13 @@
         <v>974</v>
       </c>
       <c r="E34" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="F34" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="G34" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="H34" t="s">
         <v>2879</v>
@@ -26376,25 +27129,25 @@
         <v>3687</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="C42" t="s">
         <v>4798</v>
       </c>
       <c r="D42" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5848</v>
+      </c>
+      <c r="F42" t="s">
         <v>5849</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>5850</v>
       </c>
-      <c r="F42" t="s">
-        <v>5851</v>
-      </c>
-      <c r="G42" t="s">
-        <v>5852</v>
-      </c>
       <c r="H42" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -26925,10 +27678,10 @@
         <v>1342</v>
       </c>
       <c r="F57" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="G57" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="H57" t="s">
         <v>732</v>
@@ -27053,22 +27806,22 @@
         <v>257</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
       <c r="C61" t="s">
         <v>2894</v>
       </c>
       <c r="D61" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E61" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="F61" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
       <c r="G61" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="H61" t="s">
         <v>2894</v>
@@ -27114,10 +27867,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="C63" t="s">
         <v>1185</v>
@@ -27129,10 +27882,10 @@
         <v>1980</v>
       </c>
       <c r="F63" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="G63" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="H63" t="s">
         <v>1980</v>
@@ -27301,16 +28054,16 @@
         <v>1000</v>
       </c>
       <c r="D68" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="E68" t="s">
         <v>834</v>
       </c>
       <c r="F68" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="G68" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="H68" t="s">
         <v>834</v>
@@ -27327,19 +28080,235 @@
         <v>1798</v>
       </c>
       <c r="D69" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="E69" t="s">
         <v>712</v>
       </c>
       <c r="F69" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="G69" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="H69" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5935</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5951</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5953</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5952</v>
+      </c>
+      <c r="H70" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5936</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5947</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5949</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5948</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5167</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5168</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5946</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>5939</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5944</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5943</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5942</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5941</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5959</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5964</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>5966</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5968</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5969</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5972</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>5974</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5975</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5991</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5990</v>
       </c>
     </row>
   </sheetData>
@@ -27356,10 +28325,14 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
@@ -27369,7 +28342,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>264</v>
       </c>
@@ -27377,7 +28350,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>266</v>
       </c>
@@ -27393,7 +28366,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>270</v>
       </c>
@@ -27409,7 +28382,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>274</v>
       </c>
@@ -27417,7 +28390,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>276</v>
       </c>
@@ -27425,7 +28398,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>278</v>
       </c>
@@ -27449,7 +28422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>284</v>
       </c>
@@ -27457,7 +28430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>286</v>
       </c>
@@ -27481,7 +28454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>292</v>
       </c>
@@ -55746,10 +56719,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1BFFFA-3DE2-4CFE-BE80-A950A2B6A0C1}">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55850,10 +56823,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H4" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -56108,10 +57081,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H14" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
@@ -56134,13 +57107,13 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G15" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H15" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -56163,13 +57136,13 @@
         <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G16" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H16" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -56669,10 +57642,10 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H32" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I32" t="s">
         <v>47</v>
@@ -56785,13 +57758,13 @@
         <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G36" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H36" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -57124,10 +58097,10 @@
         <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H51" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I51" t="s">
         <v>5579</v>
@@ -57718,13 +58691,13 @@
         <v>513</v>
       </c>
       <c r="F78" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G78" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H78" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I78" t="s">
         <v>5579</v>
@@ -58063,7 +59036,7 @@
         <v>4394</v>
       </c>
       <c r="C93" t="s">
-        <v>5718</v>
+        <v>5716</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -58086,7 +59059,7 @@
         <v>4373</v>
       </c>
       <c r="C94" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -58129,10 +59102,10 @@
         <v>3280</v>
       </c>
       <c r="B96" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="C96" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -58155,7 +59128,7 @@
         <v>4425</v>
       </c>
       <c r="C97" t="s">
-        <v>5722</v>
+        <v>5720</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -58172,13 +59145,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>5724</v>
+        <v>5722</v>
       </c>
       <c r="B98" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C98" t="s">
         <v>5723</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5725</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -58195,13 +59168,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="B99" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="C99" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -58218,13 +59191,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="B100" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="C100" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -58241,13 +59214,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="B101" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="C101" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -58264,13 +59237,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="B102" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="C102" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
@@ -58290,10 +59263,10 @@
         <v>4988</v>
       </c>
       <c r="B103" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="C103" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -58310,13 +59283,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="B104" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="C104" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -58333,13 +59306,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="B105" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="C105" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -58356,19 +59329,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C106" t="s">
         <v>5746</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E106" t="s">
         <v>5747</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5748</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5750</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5749</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -58385,13 +59358,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>5752</v>
+        <v>5750</v>
       </c>
       <c r="B107" t="s">
+        <v>5749</v>
+      </c>
+      <c r="C107" t="s">
         <v>5751</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5753</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
@@ -58408,13 +59381,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="B108" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C108" t="s">
         <v>5754</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5756</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -58431,13 +59404,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
       <c r="B109" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="C109" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
@@ -58454,13 +59427,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="B110" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="C110" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -58477,13 +59450,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C111" t="s">
         <v>5763</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5764</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5765</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -58500,13 +59473,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="B112" t="s">
+        <v>5764</v>
+      </c>
+      <c r="C112" t="s">
         <v>5766</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5768</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -58523,13 +59496,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="B113" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C113" t="s">
         <v>5769</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5771</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
@@ -58546,13 +59519,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="B114" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C114" t="s">
         <v>5772</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5774</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -58569,13 +59542,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="B115" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C115" t="s">
         <v>5775</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5777</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -58592,13 +59565,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C116" t="s">
         <v>5778</v>
-      </c>
-      <c r="B116" t="s">
-        <v>5779</v>
-      </c>
-      <c r="C116" t="s">
-        <v>5780</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -58615,19 +59588,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="B117" t="s">
+        <v>5781</v>
+      </c>
+      <c r="F117" t="s">
         <v>5783</v>
       </c>
-      <c r="F117" t="s">
-        <v>5785</v>
-      </c>
       <c r="G117" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H117" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I117" t="s">
         <v>5579</v>
@@ -58641,13 +59614,13 @@
         <v>1413</v>
       </c>
       <c r="F118" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G118" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H118" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I118" t="s">
         <v>5579</v>
@@ -58661,13 +59634,13 @@
         <v>1155</v>
       </c>
       <c r="F119" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G119" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H119" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I119" t="s">
         <v>5579</v>
@@ -58675,19 +59648,19 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="B120" t="s">
         <v>2695</v>
       </c>
       <c r="F120" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G120" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H120" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I120" t="s">
         <v>5579</v>
@@ -58701,13 +59674,13 @@
         <v>1319</v>
       </c>
       <c r="F121" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G121" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H121" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I121" t="s">
         <v>5579</v>
@@ -58715,19 +59688,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="B122" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="F122" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G122" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H122" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I122" t="s">
         <v>5579</v>
@@ -58764,13 +59737,13 @@
         <v>2033</v>
       </c>
       <c r="F124" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G124" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H124" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I124" t="s">
         <v>5579</v>
@@ -58778,19 +59751,19 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="B125" t="s">
         <v>645</v>
       </c>
       <c r="F125" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G125" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H125" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I125" t="s">
         <v>5579</v>
@@ -58804,13 +59777,13 @@
         <v>4403</v>
       </c>
       <c r="F126" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G126" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H126" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I126" t="s">
         <v>5579</v>
@@ -58824,13 +59797,13 @@
         <v>1703</v>
       </c>
       <c r="F127" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G127" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H127" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I127" t="s">
         <v>5579</v>
@@ -58838,13 +59811,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="B128" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C128" t="s">
         <v>5789</v>
-      </c>
-      <c r="C128" t="s">
-        <v>5791</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
@@ -58861,19 +59834,19 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="B129" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="F129" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G129" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H129" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I129" t="s">
         <v>5579</v>
@@ -58881,19 +59854,19 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="B130" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="F130" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G130" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H130" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I130" t="s">
         <v>5579</v>
@@ -58901,22 +59874,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="B131" t="s">
         <v>1904</v>
       </c>
       <c r="C131" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="F131" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G131" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H131" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I131" t="s">
         <v>5579</v>
@@ -58924,22 +59897,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="B132" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="C132" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="F132" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G132" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H132" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I132" t="s">
         <v>5579</v>
@@ -58947,22 +59920,22 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="B133" t="s">
         <v>1904</v>
       </c>
       <c r="C133" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="F133" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G133" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H133" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I133" t="s">
         <v>5579</v>
@@ -58970,13 +59943,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="B134" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C134" t="s">
         <v>5802</v>
-      </c>
-      <c r="C134" t="s">
-        <v>5804</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -58993,13 +59966,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="B135" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C135" t="s">
         <v>5805</v>
-      </c>
-      <c r="C135" t="s">
-        <v>5807</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
@@ -59022,16 +59995,16 @@
         <v>1693</v>
       </c>
       <c r="C136" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="F136" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G136" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H136" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I136" t="s">
         <v>5579</v>
@@ -59045,16 +60018,16 @@
         <v>4448</v>
       </c>
       <c r="C137" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="F137" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G137" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H137" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I137" t="s">
         <v>5579</v>
@@ -59071,13 +60044,13 @@
         <v>2159</v>
       </c>
       <c r="F138" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G138" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H138" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I138" t="s">
         <v>5579</v>
@@ -59088,19 +60061,19 @@
         <v>5026</v>
       </c>
       <c r="B139" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="C139" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="F139" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G139" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H139" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I139" t="s">
         <v>5579</v>
@@ -59137,7 +60110,7 @@
         <v>1408</v>
       </c>
       <c r="C141" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
@@ -59154,13 +60127,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="B142" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C142" t="s">
         <v>5814</v>
-      </c>
-      <c r="C142" t="s">
-        <v>5816</v>
       </c>
       <c r="F142" t="s">
         <v>80</v>
@@ -59177,22 +60150,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="B143" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C143" t="s">
         <v>5817</v>
       </c>
-      <c r="C143" t="s">
-        <v>5819</v>
-      </c>
       <c r="F143" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G143" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H143" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I143" t="s">
         <v>5579</v>
@@ -59206,16 +60179,16 @@
         <v>1420</v>
       </c>
       <c r="C144" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="F144" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G144" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H144" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I144" t="s">
         <v>5579</v>
@@ -59232,13 +60205,13 @@
         <v>1215</v>
       </c>
       <c r="F145" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G145" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H145" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I145" t="s">
         <v>5579</v>
@@ -59255,13 +60228,13 @@
         <v>2988</v>
       </c>
       <c r="F146" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G146" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H146" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I146" t="s">
         <v>5579</v>
@@ -59269,22 +60242,22 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="B147" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C147" t="s">
         <v>5821</v>
       </c>
-      <c r="C147" t="s">
-        <v>5823</v>
-      </c>
       <c r="F147" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G147" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H147" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I147" t="s">
         <v>5579</v>
@@ -59292,22 +60265,22 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="B148" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="C148" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="F148" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G148" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H148" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I148" t="s">
         <v>5579</v>
@@ -59315,13 +60288,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="B149" t="s">
+        <v>5824</v>
+      </c>
+      <c r="C149" t="s">
         <v>5826</v>
-      </c>
-      <c r="C149" t="s">
-        <v>5828</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -59338,13 +60311,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="B150" t="s">
+        <v>5830</v>
+      </c>
+      <c r="C150" t="s">
         <v>5832</v>
-      </c>
-      <c r="C150" t="s">
-        <v>5834</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -59370,13 +60343,13 @@
         <v>855</v>
       </c>
       <c r="F151" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G151" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H151" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I151" t="s">
         <v>5579</v>
@@ -59384,13 +60357,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="B152" t="s">
         <v>572</v>
       </c>
       <c r="C152" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -59407,22 +60380,22 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="B153" t="s">
         <v>692</v>
       </c>
       <c r="C153" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="F153" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G153" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H153" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I153" t="s">
         <v>5579</v>
@@ -59439,13 +60412,13 @@
         <v>175</v>
       </c>
       <c r="F154" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G154" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H154" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I154" t="s">
         <v>5579</v>
@@ -59482,16 +60455,16 @@
         <v>1790</v>
       </c>
       <c r="C156" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="F156" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G156" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H156" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I156" t="s">
         <v>5579</v>
@@ -59499,22 +60472,22 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="B157" t="s">
         <v>517</v>
       </c>
       <c r="C157" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="F157" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G157" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H157" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I157" t="s">
         <v>5579</v>
@@ -59522,13 +60495,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5855</v>
+      </c>
+      <c r="C158" t="s">
         <v>5856</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5857</v>
-      </c>
-      <c r="C158" t="s">
-        <v>5858</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
@@ -59545,13 +60518,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="B159" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C159" t="s">
         <v>5859</v>
-      </c>
-      <c r="C159" t="s">
-        <v>5861</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
@@ -59568,13 +60541,13 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="B160" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C160" t="s">
         <v>5859</v>
-      </c>
-      <c r="C160" t="s">
-        <v>5861</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
@@ -59591,22 +60564,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="B161" t="s">
         <v>373</v>
       </c>
       <c r="C161" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="F161" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="G161" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H161" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="I161" t="s">
         <v>5579</v>
@@ -59620,7 +60593,7 @@
         <v>2938</v>
       </c>
       <c r="C162" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="F162" t="s">
         <v>80</v>
@@ -59630,6 +60603,973 @@
       </c>
       <c r="H162" t="s">
         <v>614</v>
+      </c>
+      <c r="I162" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5864</v>
+      </c>
+      <c r="F163" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G163" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H163" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I163" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5866</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5867</v>
+      </c>
+      <c r="F164" t="s">
+        <v>80</v>
+      </c>
+      <c r="G164" t="s">
+        <v>317</v>
+      </c>
+      <c r="H164" t="s">
+        <v>614</v>
+      </c>
+      <c r="I164" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5870</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5871</v>
+      </c>
+      <c r="F165" t="s">
+        <v>80</v>
+      </c>
+      <c r="G165" t="s">
+        <v>317</v>
+      </c>
+      <c r="H165" t="s">
+        <v>614</v>
+      </c>
+      <c r="I165" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>5868</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5872</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5873</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>305</v>
+      </c>
+      <c r="H166" t="s">
+        <v>614</v>
+      </c>
+      <c r="I166" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5875</v>
+      </c>
+      <c r="F167" t="s">
+        <v>80</v>
+      </c>
+      <c r="G167" t="s">
+        <v>317</v>
+      </c>
+      <c r="H167" t="s">
+        <v>614</v>
+      </c>
+      <c r="I167" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5876</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>305</v>
+      </c>
+      <c r="H168" t="s">
+        <v>614</v>
+      </c>
+      <c r="I168" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>317</v>
+      </c>
+      <c r="H169" t="s">
+        <v>507</v>
+      </c>
+      <c r="I169" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B170" t="s">
+        <v>942</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5882</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>305</v>
+      </c>
+      <c r="H170" t="s">
+        <v>614</v>
+      </c>
+      <c r="I170" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B171" t="s">
+        <v>632</v>
+      </c>
+      <c r="F171" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G171" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H171" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I171" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>5886</v>
+      </c>
+      <c r="B172" t="s">
+        <v>422</v>
+      </c>
+      <c r="F172" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G172" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H172" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I172" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5911</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5913</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>305</v>
+      </c>
+      <c r="H173" t="s">
+        <v>614</v>
+      </c>
+      <c r="I173" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B174" t="s">
+        <v>891</v>
+      </c>
+      <c r="C174" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>317</v>
+      </c>
+      <c r="H174" t="s">
+        <v>507</v>
+      </c>
+      <c r="I174" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>5915</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F175" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G175" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H175" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I175" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5985</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>305</v>
+      </c>
+      <c r="H176" t="s">
+        <v>614</v>
+      </c>
+      <c r="I176" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>5987</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F177" t="s">
+        <v>80</v>
+      </c>
+      <c r="G177" t="s">
+        <v>317</v>
+      </c>
+      <c r="H177" t="s">
+        <v>614</v>
+      </c>
+      <c r="I177" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5921</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>305</v>
+      </c>
+      <c r="H178" t="s">
+        <v>614</v>
+      </c>
+      <c r="I178" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>317</v>
+      </c>
+      <c r="H179" t="s">
+        <v>507</v>
+      </c>
+      <c r="I179" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5922</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>305</v>
+      </c>
+      <c r="H180" t="s">
+        <v>614</v>
+      </c>
+      <c r="I180" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5988</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>317</v>
+      </c>
+      <c r="H181" t="s">
+        <v>507</v>
+      </c>
+      <c r="I181" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5924</v>
+      </c>
+      <c r="F182" t="s">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s">
+        <v>317</v>
+      </c>
+      <c r="H182" t="s">
+        <v>614</v>
+      </c>
+      <c r="I182" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5925</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>305</v>
+      </c>
+      <c r="H183" t="s">
+        <v>614</v>
+      </c>
+      <c r="I183" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>5928</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5927</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>305</v>
+      </c>
+      <c r="H184" t="s">
+        <v>614</v>
+      </c>
+      <c r="I184" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>5931</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5929</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5930</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>305</v>
+      </c>
+      <c r="H185" t="s">
+        <v>614</v>
+      </c>
+      <c r="I185" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>5934</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5932</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5933</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>305</v>
+      </c>
+      <c r="H186" t="s">
+        <v>614</v>
+      </c>
+      <c r="I186" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>305</v>
+      </c>
+      <c r="H187" t="s">
+        <v>614</v>
+      </c>
+      <c r="I187" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F188" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G188" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H188" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I188" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>5962</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F189" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G189" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H189" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I189" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B190" t="s">
+        <v>315</v>
+      </c>
+      <c r="F190" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G190" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H190" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I190" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B191" t="s">
+        <v>410</v>
+      </c>
+      <c r="F191" t="s">
+        <v>5979</v>
+      </c>
+      <c r="G191" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H191" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I191" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F192" t="s">
+        <v>5979</v>
+      </c>
+      <c r="G192" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H192" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I192" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5983</v>
+      </c>
+      <c r="F193" t="s">
+        <v>5984</v>
+      </c>
+      <c r="G193" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H193" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I193" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5992</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>305</v>
+      </c>
+      <c r="H194" t="s">
+        <v>614</v>
+      </c>
+      <c r="I194" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F195" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H195" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I195" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4458</v>
+      </c>
+      <c r="F196" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G196" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H196" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I196" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F197" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G197" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H197" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I197" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F198" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G198" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H198" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I198" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4886</v>
+      </c>
+      <c r="F199" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G199" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H199" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I199" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F200" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G200" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H200" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I200" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F201" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G201" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H201" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I201" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5994</v>
+      </c>
+      <c r="F202" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G202" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H202" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I202" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>5995</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5996</v>
+      </c>
+      <c r="F203" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G203" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H203" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I203" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F204" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G204" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H204" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I204" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F205" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G205" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H205" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I205" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4533</v>
+      </c>
+      <c r="F206" t="s">
+        <v>5783</v>
+      </c>
+      <c r="G206" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H206" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I206" t="s">
+        <v>5579</v>
       </c>
     </row>
   </sheetData>
@@ -59642,7 +61582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51B1D7-F2B6-40D3-B930-310327283B4B}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -59706,7 +61646,7 @@
         <v>1275</v>
       </c>
       <c r="G2" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="H2" t="s">
         <v>1036</v>
@@ -59799,19 +61739,19 @@
         <v>725</v>
       </c>
       <c r="D5" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="E5" t="s">
+        <v>5906</v>
+      </c>
+      <c r="F5" t="s">
         <v>5908</v>
       </c>
-      <c r="F5" t="s">
-        <v>5910</v>
-      </c>
       <c r="G5" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="H5" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -60006,10 +61946,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="B11" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="C11" t="s">
         <v>928</v>
@@ -60021,10 +61961,10 @@
         <v>2612</v>
       </c>
       <c r="F11" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="G11" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="H11" t="s">
         <v>2612</v>
@@ -60213,25 +62153,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5880</v>
+        <v>5878</v>
       </c>
       <c r="B17" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
       <c r="C17" t="s">
         <v>1200</v>
       </c>
       <c r="D17" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="E17" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="F17" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="G17" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="H17" t="s">
         <v>1200</v>
@@ -60362,7 +62302,7 @@
         <v>2093</v>
       </c>
       <c r="D21" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="E21" t="s">
         <v>5216</v>
@@ -60654,16 +62594,16 @@
         <v>2451</v>
       </c>
       <c r="D29" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="E29" t="s">
         <v>844</v>
       </c>
       <c r="F29" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="G29" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="H29" t="s">
         <v>2451</v>
@@ -60797,13 +62737,13 @@
         <v>974</v>
       </c>
       <c r="E33" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="F33" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="G33" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="H33" t="s">
         <v>2879</v>
@@ -61080,25 +63020,25 @@
         <v>3687</v>
       </c>
       <c r="B41" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="C41" t="s">
         <v>4798</v>
       </c>
       <c r="D41" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5848</v>
+      </c>
+      <c r="F41" t="s">
         <v>5849</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>5850</v>
       </c>
-      <c r="F41" t="s">
-        <v>5851</v>
-      </c>
-      <c r="G41" t="s">
-        <v>5852</v>
-      </c>
       <c r="H41" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -61629,10 +63569,10 @@
         <v>1342</v>
       </c>
       <c r="F56" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="G56" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="H56" t="s">
         <v>732</v>
@@ -61757,22 +63697,22 @@
         <v>257</v>
       </c>
       <c r="B60" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
       <c r="C60" t="s">
         <v>2894</v>
       </c>
       <c r="D60" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E60" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="F60" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
       <c r="G60" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="H60" t="s">
         <v>2894</v>
@@ -61818,10 +63758,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
       <c r="B62" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="C62" t="s">
         <v>1185</v>
@@ -61833,10 +63773,10 @@
         <v>1980</v>
       </c>
       <c r="F62" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="G62" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="H62" t="s">
         <v>1980</v>
@@ -62005,16 +63945,16 @@
         <v>1000</v>
       </c>
       <c r="D67" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="E67" t="s">
         <v>834</v>
       </c>
       <c r="F67" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="G67" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="H67" t="s">
         <v>834</v>
@@ -62031,16 +63971,16 @@
         <v>1798</v>
       </c>
       <c r="D68" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="E68" t="s">
         <v>712</v>
       </c>
       <c r="F68" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="G68" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="H68" t="s">
         <v>712</v>
